--- a/data/Long_Format_Payment_Terms.xlsx
+++ b/data/Long_Format_Payment_Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldyn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321176A0-F154-4847-9507-D111BD915436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3019DE6-8D29-7043-8FAD-A21B910289E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="210">
   <si>
     <t>VENDOR</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>8,299,350,000</t>
+  </si>
+  <si>
+    <t>Tanggal_Transaksi</t>
   </si>
 </sst>
 </file>
@@ -721,16 +724,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,24 +1042,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="1" max="1" width="49.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="54.109375" customWidth="1"/>
-    <col min="5" max="5" width="58.109375" customWidth="1"/>
-    <col min="7" max="7" width="56.77734375" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" customWidth="1"/>
+    <col min="5" max="5" width="58.1640625" customWidth="1"/>
+    <col min="7" max="7" width="56.83203125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="19" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,3993 +1085,4468 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="I1" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
         <v>45170</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>45901</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>45646</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>45767</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>45646</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>45767</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>45646</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>45767</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4">
         <v>45663</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>46393</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4">
         <v>45663</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>46393</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="H10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4">
         <v>45663</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>46393</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4">
         <v>45663</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>46393</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4">
         <v>45663</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>46393</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4">
         <v>45663</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>46393</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>6</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="H14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
         <v>45574</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>45847</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="H15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4">
         <v>45778</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>46508</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4">
         <v>45778</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>46508</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="H17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4">
         <v>45778</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>46508</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4">
         <v>45583</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>45644</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="H19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4">
         <v>45583</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>45644</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="H20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4">
         <v>45478</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>46270</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="H21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="5">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4">
         <v>45478</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>46270</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="H22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="5">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4">
         <v>45478</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>46270</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="H23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="5">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4">
         <v>45478</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>46270</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>4</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="H24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4">
         <v>45478</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>46270</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="H25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4">
         <v>45474</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>46204</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="H26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="5">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4">
         <v>45474</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>46204</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="H27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="5">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4">
         <v>45474</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>46204</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="H28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="5">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4">
         <v>45474</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>46204</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>4</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="H29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="5">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4">
         <v>45474</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>46204</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>5</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="H30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="5">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
         <v>45474</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>46204</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>6</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="H31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="5">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="4">
         <v>45474</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>46204</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>7</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="H32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="5">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="6">
         <v>45474</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="6">
         <v>46204</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>8</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="H33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="5">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="4">
         <v>45474</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>46204</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>9</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="H34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="5">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
         <v>45474</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>46204</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>10</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="H35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="2">
+      <c r="B36" s="3"/>
+      <c r="C36" s="4">
         <v>45474</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>46204</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="H36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="4">
         <v>45200</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>46341</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>1</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="H37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="5">
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="2">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4">
         <v>45200</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <v>46341</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="H38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="5">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="2">
+      <c r="B39" s="3"/>
+      <c r="C39" s="4">
         <v>45200</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>46341</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>3</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="H39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="5">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="2">
+      <c r="B40" s="3"/>
+      <c r="C40" s="4">
         <v>45200</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="4">
         <v>46341</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="H40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="5">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="2">
+      <c r="B41" s="3"/>
+      <c r="C41" s="4">
         <v>45200</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>46341</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>5</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="H41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="5">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="2">
+      <c r="B42" s="3"/>
+      <c r="C42" s="4">
         <v>45200</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>46341</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>6</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="H42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="5">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="2">
+      <c r="B43" s="3"/>
+      <c r="C43" s="4">
         <v>45200</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>46341</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>7</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="H43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="5">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="2">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4">
         <v>45200</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="4">
         <v>46341</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>8</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="H44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="5">
+        <v>45459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="2">
+      <c r="B45" s="3"/>
+      <c r="C45" s="4">
         <v>45200</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>46341</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>9</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="H45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="5">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="2">
+      <c r="B46" s="3"/>
+      <c r="C46" s="4">
         <v>45200</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>46341</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>10</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="H46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="5">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="2">
+      <c r="B47" s="3"/>
+      <c r="C47" s="4">
         <v>45200</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>46341</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="H47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="5">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="4">
         <v>45200</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>46341</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>12</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="H48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="5">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="4">
         <v>45200</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>46341</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>13</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="H49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="5">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="2">
+      <c r="B50" s="3"/>
+      <c r="C50" s="4">
         <v>45200</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="4">
         <v>46341</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>14</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="H50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="5">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="2">
+      <c r="B51" s="3"/>
+      <c r="C51" s="4">
         <v>45200</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="4">
         <v>46341</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>15</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="H51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="2">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4">
         <v>45200</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="4">
         <v>46341</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>16</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="H52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>45145</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="4">
         <v>45358</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>1</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="H53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="5">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="4">
         <v>45145</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="4">
         <v>45358</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>1</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="H54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="5">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>45145</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="4">
         <v>45358</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>1</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="H55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="5">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>45145</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="4">
         <v>45358</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>2</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="H56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="5">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="4">
         <v>45145</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="4">
         <v>45358</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>2</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="H57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="5">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="4">
         <v>45145</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="4">
         <v>45358</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>2</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="H58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="5">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="4">
         <v>45145</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="4">
         <v>45358</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>3</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="H59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="5">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="4">
         <v>45145</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="4">
         <v>45358</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>3</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="H60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" s="5">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>45250</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="4">
         <v>45843</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="H61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="5">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="4">
         <v>45250</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="4">
         <v>45843</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>1</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="H62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="5">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="4">
         <v>45250</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="4">
         <v>45843</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>2</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="H63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="5">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="4">
         <v>45250</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="4">
         <v>45843</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>2</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="H64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="5">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="6">
         <v>45250</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="6">
         <v>45843</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>3</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="H65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="5">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="4">
         <v>45250</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="4">
         <v>45843</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>4</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="H66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="5">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="2">
+      <c r="B67" s="3"/>
+      <c r="C67" s="4">
         <v>45250</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="4">
         <v>45843</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>5</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="H67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="5">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="4">
         <v>45250</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="4">
         <v>45843</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>6</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="H68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="5">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="4">
         <v>45250</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="4">
         <v>45843</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>7</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="H69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="4">
         <v>45250</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="4">
         <v>45843</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>8</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="H70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="4">
         <v>45250</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="4">
         <v>45843</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>9</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="H71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="4">
         <v>45250</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="4">
         <v>45843</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>10</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H72" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="H72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="4">
         <v>45250</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="4">
         <v>45843</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="H73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="4">
         <v>45250</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="4">
         <v>45843</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>12</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="H74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="4">
         <v>45461</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="4">
         <v>46191</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>1</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H75" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="H75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="5">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="4">
         <v>45461</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="4">
         <v>46191</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>1</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="H76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="5">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="4">
         <v>45461</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="4">
         <v>46191</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>1</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H77" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="H77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="4">
         <v>45461</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="4">
         <v>46191</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>2</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="H78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" s="5">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="4">
         <v>45461</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="4">
         <v>46191</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>2</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H79" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="H79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" s="5">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="4">
         <v>45461</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="4">
         <v>46191</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>2</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="H80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="4">
         <v>45461</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="4">
         <v>46191</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>3</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H81" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="H81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="4">
         <v>45461</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="4">
         <v>46191</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>4</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="H82" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="4">
         <v>45461</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="4">
         <v>46191</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>5</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H83" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="H83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="2">
+      <c r="B84" s="3"/>
+      <c r="C84" s="4">
         <v>45545</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="4">
         <v>45879</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>1</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H84" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="H84" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" s="5">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="2">
+      <c r="B85" s="3"/>
+      <c r="C85" s="4">
         <v>45545</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="4">
         <v>45879</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>2</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H85" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="H85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" s="5">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="2">
+      <c r="B86" s="3"/>
+      <c r="C86" s="4">
         <v>45545</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="4">
         <v>45879</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>3</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H86" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="H86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" s="5">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="2">
+      <c r="B87" s="3"/>
+      <c r="C87" s="4">
         <v>45545</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="4">
         <v>45879</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>4</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="H87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" s="5">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="2">
+      <c r="B88" s="3"/>
+      <c r="C88" s="4">
         <v>45545</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="4">
         <v>45879</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>5</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H88" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="H88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E89" t="s">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>1</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H89" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="H89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="2">
+      <c r="B90" s="3"/>
+      <c r="C90" s="4">
         <v>45160</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="4">
         <v>45404</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>1</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="H90" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" s="5">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="2">
+      <c r="B91" s="3"/>
+      <c r="C91" s="4">
         <v>45160</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="4">
         <v>45404</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>2</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H91" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="H91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" s="5">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C92" s="2">
+      <c r="B92" s="3"/>
+      <c r="C92" s="4">
         <v>45160</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="4">
         <v>45404</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>3</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H92" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="H92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" s="5">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="2">
+      <c r="B93" s="3"/>
+      <c r="C93" s="4">
         <v>45160</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="4">
         <v>45404</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>4</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="H93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="5">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s">
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>1</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H94" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="H94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s">
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>2</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H95" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="H95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C96" s="2">
+      <c r="B96" s="3"/>
+      <c r="C96" s="4">
         <v>45638</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="4">
         <v>45850</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>1</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H96" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="H96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="2">
+      <c r="B97" s="3"/>
+      <c r="C97" s="4">
         <v>45638</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="4">
         <v>45850</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>2</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H97" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="H97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="2">
+      <c r="B98" s="3"/>
+      <c r="C98" s="4">
         <v>45638</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="4">
         <v>45850</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>3</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H98" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="H98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="4">
         <v>45636</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="4">
         <v>45818</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>1</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H99" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="H99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="5">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="4">
         <v>45636</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="4">
         <v>45818</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>1</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H100" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="H100" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="5">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="4">
         <v>45636</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="4">
         <v>45818</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>2</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H101" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="H101" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="5">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="4">
         <v>45636</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="4">
         <v>45818</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>2</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H102" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="H102" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" s="5">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="4">
         <v>45636</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="4">
         <v>45818</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>3</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H103" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="H103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" s="5">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C104" s="2">
+      <c r="B104" s="3"/>
+      <c r="C104" s="4">
         <v>45314</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="4">
         <v>45953</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>1</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H104" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="H104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I104" s="5">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C105" s="2">
+      <c r="B105" s="3"/>
+      <c r="C105" s="4">
         <v>45314</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="4">
         <v>45953</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="3">
         <v>2</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H105" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="H105" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" s="5">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C106" s="2">
+      <c r="B106" s="3"/>
+      <c r="C106" s="4">
         <v>45314</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="4">
         <v>45953</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>3</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H106" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="H106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" s="5">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C107" s="2">
+      <c r="B107" s="3"/>
+      <c r="C107" s="4">
         <v>45314</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="4">
         <v>45953</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="3">
         <v>4</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H107" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="H107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="2">
+      <c r="B108" s="3"/>
+      <c r="C108" s="4">
         <v>45762</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="4">
         <v>47223</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="3">
         <v>1</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H108" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="H108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" s="5">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="2">
+      <c r="B109" s="3"/>
+      <c r="C109" s="4">
         <v>45139</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="4">
         <v>45870</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>1</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H109" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="H109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" s="5">
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s">
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
         <v>1</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H110" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="H110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="2">
+      <c r="B111" s="3"/>
+      <c r="C111" s="4">
         <v>45663</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="4">
         <v>46424</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="3">
         <v>1</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H111" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="H111" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I111" s="5">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="4">
         <v>45589</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="4">
         <v>46350</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>1</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H112" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="H112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" s="5">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="4">
         <v>45589</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="4">
         <v>46350</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="3">
         <v>1</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H113" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="H113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I113" s="5">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="4">
         <v>45589</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="4">
         <v>46350</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
         <v>1</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H114" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="H114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" s="5">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="4">
         <v>45589</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="4">
         <v>46350</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="3">
         <v>2</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H115" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="H115" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" s="5">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="4">
         <v>45589</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="4">
         <v>46350</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="3">
         <v>2</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H116" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="H116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I116" s="5">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="4">
         <v>45589</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="4">
         <v>46350</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
         <v>2</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H117" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="H117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I117" s="5">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="2">
+      <c r="B118" s="3"/>
+      <c r="C118" s="4">
         <v>45762</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="4">
         <v>46310</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
         <v>1</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H118" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="H118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I118" s="5">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="2">
+      <c r="B119" s="3"/>
+      <c r="C119" s="4">
         <v>45762</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="4">
         <v>46310</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
         <v>2</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H119" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="H119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C120" s="2">
+      <c r="B120" s="3"/>
+      <c r="C120" s="4">
         <v>45762</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="4">
         <v>46310</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="3">
         <v>3</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H120" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="H120" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="4">
         <v>45075</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="4">
         <v>45136</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="3">
         <v>1</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H121" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="H121" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I121" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="4">
         <v>45075</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="4">
         <v>45136</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="3">
         <v>2</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="H122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" s="5">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="4">
         <v>45075</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="4">
         <v>45136</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="3">
         <v>3</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H123" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="H123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" s="5">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s">
+      <c r="B124" s="3"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="3">
         <v>1</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H124" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="H124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I124" s="5">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s">
+      <c r="B125" s="3"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="3">
         <v>2</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H125" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="H125" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I125" s="5">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s">
+      <c r="B126" s="3"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="3">
         <v>3</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H126" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="H126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I126" s="5">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C127" s="2">
+      <c r="B127" s="3"/>
+      <c r="C127" s="4">
         <v>45768</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="4">
         <v>45890</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="3">
         <v>1</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H127" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="H127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I127" s="5">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C128" s="2">
+      <c r="B128" s="3"/>
+      <c r="C128" s="4">
         <v>45768</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="4">
         <v>45890</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="3">
         <v>2</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H128" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="H128" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I128" s="5">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C129" s="2">
+      <c r="B129" s="3"/>
+      <c r="C129" s="4">
         <v>45778</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="4">
         <v>46143</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="3">
         <v>1</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H129" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="H129" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I129" s="5">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C130" s="2">
+      <c r="B130" s="3"/>
+      <c r="C130" s="4">
         <v>45778</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="4">
         <v>46143</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="3">
         <v>2</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H130" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="H130" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C131" s="2">
+      <c r="B131" s="3"/>
+      <c r="C131" s="4">
         <v>45778</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="4">
         <v>46143</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="3">
         <v>3</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H131" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="H131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="2">
+      <c r="B132" s="3"/>
+      <c r="C132" s="4">
         <v>45778</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="4">
         <v>46143</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="3">
         <v>4</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H132" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="H132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C133" s="2">
+      <c r="B133" s="3"/>
+      <c r="C133" s="4">
         <v>45778</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="4">
         <v>46143</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="3">
         <v>5</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H133" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="H133" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="2">
+      <c r="B134" s="3"/>
+      <c r="C134" s="4">
         <v>45778</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="4">
         <v>46143</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="3">
         <v>6</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H134" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="H134" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C135" s="2">
+      <c r="B135" s="3"/>
+      <c r="C135" s="4">
         <v>45778</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="4">
         <v>46143</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="3">
         <v>7</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H135" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="H135" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C136" s="2">
+      <c r="B136" s="3"/>
+      <c r="C136" s="4">
         <v>45778</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="4">
         <v>46143</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="3">
         <v>8</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H136" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="H136" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="4">
         <v>45455</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="4">
         <v>46246</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="3">
         <v>1</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H137" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="H137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I137" s="5">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="4">
         <v>45455</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="4">
         <v>46246</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="3">
         <v>1</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H138" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="H138" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138" s="5">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="4">
         <v>45455</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="4">
         <v>46246</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="3">
         <v>2</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H139" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="H139" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I139" s="5">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="4">
         <v>45455</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="4">
         <v>46246</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="3">
         <v>2</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H140" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="H140" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="4">
         <v>45455</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="4">
         <v>46246</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="3">
         <v>3</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H141" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="H141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C142" s="2">
+      <c r="B142" s="3"/>
+      <c r="C142" s="4">
         <v>45778</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="4">
         <v>46508</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="3">
         <v>4</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H142" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="H142" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" s="5">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s">
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="3">
         <v>1</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H143" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="H143" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C144" s="2">
+      <c r="B144" s="3"/>
+      <c r="C144" s="4">
         <v>45478</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="4">
         <v>46270</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E144" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="3">
         <v>12</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C145" s="2">
+      <c r="B145" s="3"/>
+      <c r="C145" s="4">
         <v>45474</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="4">
         <v>46204</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E145" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="3">
         <v>12</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="2">
+      <c r="B146" s="3"/>
+      <c r="C146" s="4">
         <v>45200</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="4">
         <v>46341</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E146" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="3">
         <v>12</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H146" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="H146" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I146" s="5">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="4">
         <v>45250</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="4">
         <v>45843</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E147" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="3">
         <v>12</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="2">
+      <c r="B148" s="3"/>
+      <c r="C148" s="4">
         <v>45478</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="4">
         <v>46270</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="E148" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="3">
         <v>13</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="2">
+      <c r="B149" s="3"/>
+      <c r="C149" s="4">
         <v>45474</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="4">
         <v>46204</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E149" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="3">
         <v>13</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C150" s="2">
+      <c r="B150" s="3"/>
+      <c r="C150" s="4">
         <v>45200</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="4">
         <v>46341</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="E150" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="3">
         <v>13</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H150" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="H150" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I150" s="5">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="4">
         <v>45250</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="4">
         <v>45843</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E151" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="3">
         <v>13</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C152" s="2">
+      <c r="B152" s="3"/>
+      <c r="C152" s="4">
         <v>45478</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="4">
         <v>46270</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="3">
         <v>14</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H152" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C153" s="2">
+      <c r="B153" s="3"/>
+      <c r="C153" s="4">
         <v>45474</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="4">
         <v>46204</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="E153" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="3">
         <v>14</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C154" s="2">
+      <c r="B154" s="3"/>
+      <c r="C154" s="4">
         <v>45200</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="4">
         <v>46341</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="E154" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="3">
         <v>14</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="4">
         <v>45250</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="4">
         <v>45843</v>
       </c>
-      <c r="E155" s="4" t="s">
+      <c r="E155" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="3">
         <v>14</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C156" s="2">
+      <c r="B156" s="3"/>
+      <c r="C156" s="4">
         <v>45478</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="4">
         <v>46270</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="E156" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="3">
         <v>15</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C157" s="2">
+      <c r="B157" s="3"/>
+      <c r="C157" s="4">
         <v>45474</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="4">
         <v>46204</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E157" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="3">
         <v>15</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="4">
         <v>45250</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="4">
         <v>45843</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E158" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="3">
         <v>15</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C159" s="2">
+      <c r="B159" s="3"/>
+      <c r="C159" s="4">
         <v>45478</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="4">
         <v>46270</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="E159" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="3">
         <v>16</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="I159" s="5"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C160" s="2">
+      <c r="B160" s="3"/>
+      <c r="C160" s="4">
         <v>45474</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="4">
         <v>46204</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E160" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="3">
         <v>16</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="2">
+      <c r="B161" s="3"/>
+      <c r="C161" s="4">
         <v>45474</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="4">
         <v>46204</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E161" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="3">
         <v>17</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="I161" s="5"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C162" s="2">
+      <c r="B162" s="3"/>
+      <c r="C162" s="4">
         <v>45474</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="4">
         <v>46204</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="E162" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="3">
         <v>18</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H162" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C163" s="2">
+      <c r="B163" s="3"/>
+      <c r="C163" s="4">
         <v>45474</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="4">
         <v>46204</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="E163" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="3">
         <v>19</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C164" s="2">
+      <c r="B164" s="3"/>
+      <c r="C164" s="4">
         <v>45474</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="4">
         <v>46204</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="E164" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="3">
         <v>20</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C165" s="2">
+      <c r="B165" s="3"/>
+      <c r="C165" s="4">
         <v>45474</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="4">
         <v>46204</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="E165" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="3">
         <v>21</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C166" s="2">
+      <c r="B166" s="3"/>
+      <c r="C166" s="4">
         <v>45474</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="4">
         <v>46204</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="3">
         <v>22</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H166" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="2">
+      <c r="B167" s="3"/>
+      <c r="C167" s="4">
         <v>45474</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="4">
         <v>46204</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="E167" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="3">
         <v>23</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C168" s="2">
+      <c r="B168" s="3"/>
+      <c r="C168" s="4">
         <v>45474</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="4">
         <v>46204</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="E168" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="3">
         <v>24</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H168" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="I168" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5076,7 +5559,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Long_Format_Payment_Terms.xlsx
+++ b/data/Long_Format_Payment_Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\incaa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549A2F1-1D3F-4863-9464-558973F0ABD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0868013A-A35E-AC4E-8C58-685DA91E43D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>KKA ARYA BAGIASTRA</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>PT Mipcon Konsultan Utama</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>PAGAR PANEL 310M (LAHAN BARU)</t>
+  </si>
+  <si>
+    <t>PAYMENT_DATE</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Koma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -726,25 +726,25 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="80.88671875" customWidth="1"/>
+    <col min="1" max="1" width="49.1640625" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,15 +770,15 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>45075</v>
@@ -802,12 +802,12 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>45075</v>
@@ -831,12 +831,12 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>45075</v>
@@ -860,12 +860,12 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>45145</v>
@@ -889,12 +889,12 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>45145</v>
@@ -918,9 +918,9 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -947,9 +947,9 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -976,9 +976,9 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1005,12 +1005,12 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>45145</v>
@@ -1034,12 +1034,12 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>45145</v>
@@ -1063,12 +1063,12 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>45145</v>
@@ -1092,12 +1092,12 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>45160</v>
@@ -1121,12 +1121,12 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>45160</v>
@@ -1150,12 +1150,12 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>45160</v>
@@ -1179,12 +1179,12 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>45160</v>
@@ -1208,12 +1208,12 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="2">
         <v>45200</v>
@@ -1237,12 +1237,12 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
       </c>
       <c r="C18" s="2">
         <v>45200</v>
@@ -1266,12 +1266,12 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>45200</v>
@@ -1295,12 +1295,12 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
       </c>
       <c r="C20" s="2">
         <v>45200</v>
@@ -1324,12 +1324,12 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>45200</v>
@@ -1353,12 +1353,12 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
       </c>
       <c r="C22" s="2">
         <v>45200</v>
@@ -1382,12 +1382,12 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
         <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
       </c>
       <c r="C23" s="2">
         <v>45200</v>
@@ -1411,12 +1411,12 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
         <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
       </c>
       <c r="C24" s="2">
         <v>45200</v>
@@ -1440,12 +1440,12 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
         <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
       </c>
       <c r="C25" s="2">
         <v>45200</v>
@@ -1469,12 +1469,12 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
         <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
       </c>
       <c r="C26" s="2">
         <v>45200</v>
@@ -1498,12 +1498,12 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
       </c>
       <c r="C27" s="2">
         <v>45200</v>
@@ -1527,12 +1527,12 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
       </c>
       <c r="C28" s="2">
         <v>45200</v>
@@ -1556,12 +1556,12 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
       </c>
       <c r="C29" s="2">
         <v>45200</v>
@@ -1585,12 +1585,12 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
       </c>
       <c r="C30" s="2">
         <v>45200</v>
@@ -1614,12 +1614,12 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
         <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
       </c>
       <c r="C31" s="2">
         <v>45200</v>
@@ -1643,12 +1643,12 @@
         <v>45721</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
       </c>
       <c r="C32" s="2">
         <v>45200</v>
@@ -1672,12 +1672,12 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
       </c>
       <c r="C33" s="2">
         <v>45200</v>
@@ -1701,12 +1701,12 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
       </c>
       <c r="C34" s="2">
         <v>45200</v>
@@ -1730,12 +1730,12 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
         <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
       </c>
       <c r="C35" s="2">
         <v>45200</v>
@@ -1759,12 +1759,12 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2">
         <v>45250</v>
@@ -1788,12 +1788,12 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2">
         <v>45250</v>
@@ -1817,12 +1817,12 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2">
         <v>45250</v>
@@ -1846,12 +1846,12 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2">
         <v>45250</v>
@@ -1875,12 +1875,12 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2">
         <v>45250</v>
@@ -1904,12 +1904,12 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2">
         <v>45250</v>
@@ -1933,12 +1933,12 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="2">
         <v>45250</v>
@@ -1962,12 +1962,12 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2">
         <v>45250</v>
@@ -1991,12 +1991,12 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="2">
         <v>45250</v>
@@ -2020,12 +2020,12 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="2">
         <v>45250</v>
@@ -2049,12 +2049,12 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="2">
         <v>45250</v>
@@ -2078,12 +2078,12 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2">
         <v>45250</v>
@@ -2107,12 +2107,12 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="2">
         <v>45250</v>
@@ -2136,12 +2136,12 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="2">
         <v>45250</v>
@@ -2165,12 +2165,12 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="2">
         <v>45250</v>
@@ -2194,12 +2194,12 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="2">
         <v>45250</v>
@@ -2223,12 +2223,12 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="2">
         <v>45314</v>
@@ -2252,12 +2252,12 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="2">
         <v>45314</v>
@@ -2281,12 +2281,12 @@
         <v>45345</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2">
         <v>45314</v>
@@ -2310,12 +2310,12 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2">
         <v>45314</v>
@@ -2339,12 +2339,12 @@
         <v>45695</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2">
         <v>45455</v>
@@ -2368,12 +2368,12 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2">
         <v>45455</v>
@@ -2397,12 +2397,12 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2">
         <v>45455</v>
@@ -2426,12 +2426,12 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2">
         <v>45455</v>
@@ -2455,12 +2455,12 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2">
         <v>45455</v>
@@ -2484,12 +2484,12 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="2">
         <v>45455</v>
@@ -2513,12 +2513,12 @@
         <v>45897</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
         <v>40</v>
-      </c>
-      <c r="B62" t="s">
-        <v>41</v>
       </c>
       <c r="C62" s="2">
         <v>45826</v>
@@ -2542,12 +2542,12 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
         <v>40</v>
-      </c>
-      <c r="B63" t="s">
-        <v>41</v>
       </c>
       <c r="C63" s="2">
         <v>45826</v>
@@ -2571,12 +2571,12 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2">
         <v>45826</v>
@@ -2600,12 +2600,12 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65" s="2">
         <v>45826</v>
@@ -2629,12 +2629,12 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2">
         <v>45826</v>
@@ -2658,12 +2658,12 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2">
         <v>45826</v>
@@ -2687,12 +2687,12 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2">
         <v>45826</v>
@@ -2716,12 +2716,12 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="2">
         <v>45826</v>
@@ -2745,12 +2745,12 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2">
         <v>45826</v>
@@ -2774,12 +2774,12 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2">
         <v>45826</v>
@@ -2803,12 +2803,12 @@
         <v>45884</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2">
         <v>45826</v>
@@ -2832,12 +2832,12 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" s="2">
         <v>45826</v>
@@ -2861,12 +2861,12 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2">
         <v>45826</v>
@@ -2890,12 +2890,12 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2">
         <v>45826</v>
@@ -2919,12 +2919,12 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2">
         <v>45478</v>
@@ -2948,12 +2948,12 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2">
         <v>45478</v>
@@ -2977,12 +2977,12 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2">
         <v>45478</v>
@@ -3006,12 +3006,12 @@
         <v>45702</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2">
         <v>45478</v>
@@ -3035,12 +3035,12 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C80" s="2">
         <v>45478</v>
@@ -3064,12 +3064,12 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81" s="2">
         <v>45516</v>
@@ -3093,12 +3093,12 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C82" s="2">
         <v>45516</v>
@@ -3122,12 +3122,12 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2">
         <v>45516</v>
@@ -3151,12 +3151,12 @@
         <v>45784</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2">
         <v>45545</v>
@@ -3180,12 +3180,12 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2">
         <v>45545</v>
@@ -3209,12 +3209,12 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C86" s="2">
         <v>45545</v>
@@ -3238,12 +3238,12 @@
         <v>45671</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C87" s="2">
         <v>45545</v>
@@ -3267,12 +3267,12 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2">
         <v>45545</v>
@@ -3298,12 +3298,12 @@
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C89" s="2">
         <v>45545</v>
@@ -3329,12 +3329,12 @@
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
         <v>47</v>
-      </c>
-      <c r="B90" t="s">
-        <v>48</v>
       </c>
       <c r="C90" s="2">
         <v>45474</v>
@@ -3360,12 +3360,12 @@
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
         <v>47</v>
-      </c>
-      <c r="B91" t="s">
-        <v>48</v>
       </c>
       <c r="C91" s="2">
         <v>45474</v>
@@ -3391,12 +3391,12 @@
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" t="s">
         <v>47</v>
-      </c>
-      <c r="B92" t="s">
-        <v>48</v>
       </c>
       <c r="C92" s="2">
         <v>45474</v>
@@ -3422,12 +3422,12 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" t="s">
         <v>47</v>
-      </c>
-      <c r="B93" t="s">
-        <v>48</v>
       </c>
       <c r="C93" s="2">
         <v>45474</v>
@@ -3453,12 +3453,12 @@
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" t="s">
         <v>47</v>
-      </c>
-      <c r="B94" t="s">
-        <v>48</v>
       </c>
       <c r="C94" s="2">
         <v>45474</v>
@@ -3484,12 +3484,12 @@
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" t="s">
         <v>47</v>
-      </c>
-      <c r="B95" t="s">
-        <v>48</v>
       </c>
       <c r="C95" s="2">
         <v>45474</v>
@@ -3515,12 +3515,12 @@
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" t="s">
         <v>47</v>
-      </c>
-      <c r="B96" t="s">
-        <v>48</v>
       </c>
       <c r="C96" s="2">
         <v>45474</v>
@@ -3546,12 +3546,12 @@
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" t="s">
         <v>47</v>
-      </c>
-      <c r="B97" t="s">
-        <v>48</v>
       </c>
       <c r="C97" s="2">
         <v>45474</v>
@@ -3577,12 +3577,12 @@
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" t="s">
         <v>47</v>
-      </c>
-      <c r="B98" t="s">
-        <v>48</v>
       </c>
       <c r="C98" s="2">
         <v>45474</v>
@@ -3608,12 +3608,12 @@
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s">
         <v>47</v>
-      </c>
-      <c r="B99" t="s">
-        <v>48</v>
       </c>
       <c r="C99" s="2">
         <v>45474</v>
@@ -3639,12 +3639,12 @@
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" t="s">
         <v>47</v>
-      </c>
-      <c r="B100" t="s">
-        <v>48</v>
       </c>
       <c r="C100" s="2">
         <v>45474</v>
@@ -3670,12 +3670,12 @@
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" t="s">
         <v>47</v>
-      </c>
-      <c r="B101" t="s">
-        <v>48</v>
       </c>
       <c r="C101" s="2">
         <v>45474</v>
@@ -3701,12 +3701,12 @@
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
         <v>47</v>
-      </c>
-      <c r="B102" t="s">
-        <v>48</v>
       </c>
       <c r="C102" s="2">
         <v>45474</v>
@@ -3732,12 +3732,12 @@
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" t="s">
         <v>47</v>
-      </c>
-      <c r="B103" t="s">
-        <v>48</v>
       </c>
       <c r="C103" s="2">
         <v>45474</v>
@@ -3763,12 +3763,12 @@
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
         <v>47</v>
-      </c>
-      <c r="B104" t="s">
-        <v>48</v>
       </c>
       <c r="C104" s="2">
         <v>45474</v>
@@ -3794,12 +3794,12 @@
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" t="s">
         <v>49</v>
-      </c>
-      <c r="B105" t="s">
-        <v>50</v>
       </c>
       <c r="C105" s="2">
         <v>45502</v>
@@ -3825,12 +3825,12 @@
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
     </row>
-    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" t="s">
         <v>51</v>
-      </c>
-      <c r="B106" t="s">
-        <v>52</v>
       </c>
       <c r="C106" s="2">
         <v>45170</v>
@@ -3856,12 +3856,12 @@
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" t="s">
         <v>53</v>
-      </c>
-      <c r="B107" t="s">
-        <v>54</v>
       </c>
       <c r="C107" s="2">
         <v>45574</v>
@@ -3887,12 +3887,12 @@
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
     </row>
-    <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" t="s">
         <v>55</v>
-      </c>
-      <c r="B108" t="s">
-        <v>56</v>
       </c>
       <c r="C108" s="2">
         <v>45583</v>
@@ -3918,12 +3918,12 @@
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" t="s">
         <v>55</v>
-      </c>
-      <c r="B109" t="s">
-        <v>56</v>
       </c>
       <c r="C109" s="2">
         <v>45583</v>
@@ -3949,12 +3949,12 @@
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C110" s="2">
         <v>45589</v>
@@ -3980,12 +3980,12 @@
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C111" s="2">
         <v>45589</v>
@@ -4011,12 +4011,12 @@
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C112" s="2">
         <v>45589</v>
@@ -4042,12 +4042,12 @@
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C113" s="2">
         <v>45589</v>
@@ -4073,12 +4073,12 @@
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2">
         <v>45589</v>
@@ -4104,12 +4104,12 @@
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C115" s="2">
         <v>45589</v>
@@ -4135,12 +4135,12 @@
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C116" s="2">
         <v>45589</v>
@@ -4166,12 +4166,12 @@
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2">
         <v>45589</v>
@@ -4197,12 +4197,12 @@
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C118" s="2">
         <v>45589</v>
@@ -4228,12 +4228,12 @@
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C119" s="2">
         <v>45666</v>
@@ -4261,12 +4261,12 @@
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2">
         <v>45666</v>
@@ -4294,12 +4294,12 @@
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2">
         <v>45638</v>
@@ -4325,12 +4325,12 @@
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C122" s="2">
         <v>45638</v>
@@ -4356,12 +4356,12 @@
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2">
         <v>45638</v>
@@ -4387,12 +4387,12 @@
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124" t="s">
         <v>58</v>
-      </c>
-      <c r="B124" t="s">
-        <v>59</v>
       </c>
       <c r="C124" s="2">
         <v>45646</v>
@@ -4418,12 +4418,12 @@
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>57</v>
+      </c>
+      <c r="B125" t="s">
         <v>58</v>
-      </c>
-      <c r="B125" t="s">
-        <v>59</v>
       </c>
       <c r="C125" s="2">
         <v>45646</v>
@@ -4449,12 +4449,12 @@
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" t="s">
         <v>58</v>
-      </c>
-      <c r="B126" t="s">
-        <v>59</v>
       </c>
       <c r="C126" s="2">
         <v>45646</v>
@@ -4480,12 +4480,12 @@
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C127" s="2">
         <v>45636</v>
@@ -4511,12 +4511,12 @@
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2">
         <v>45636</v>
@@ -4542,12 +4542,12 @@
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C129" s="2">
         <v>45636</v>
@@ -4573,12 +4573,12 @@
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C130" s="2">
         <v>45636</v>
@@ -4604,12 +4604,12 @@
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2">
         <v>45636</v>
@@ -4635,12 +4635,12 @@
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
     </row>
-    <row r="132" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C132" s="7">
         <v>45636</v>
@@ -4666,12 +4666,12 @@
       <c r="N132" s="9"/>
       <c r="O132" s="9"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2">
         <v>45663</v>
@@ -4697,12 +4697,12 @@
       <c r="N133" s="5"/>
       <c r="O133" s="5"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C134" s="2">
         <v>45663</v>
@@ -4728,12 +4728,12 @@
       <c r="N134" s="5"/>
       <c r="O134" s="5"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" t="s">
         <v>63</v>
-      </c>
-      <c r="B135" t="s">
-        <v>64</v>
       </c>
       <c r="C135" s="2">
         <v>45663</v>
@@ -4759,12 +4759,12 @@
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>62</v>
+      </c>
+      <c r="B136" t="s">
         <v>63</v>
-      </c>
-      <c r="B136" t="s">
-        <v>64</v>
       </c>
       <c r="C136" s="2">
         <v>45663</v>
@@ -4790,12 +4790,12 @@
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>62</v>
+      </c>
+      <c r="B137" t="s">
         <v>63</v>
-      </c>
-      <c r="B137" t="s">
-        <v>64</v>
       </c>
       <c r="C137" s="2">
         <v>45663</v>
@@ -4821,12 +4821,12 @@
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" t="s">
         <v>63</v>
-      </c>
-      <c r="B138" t="s">
-        <v>64</v>
       </c>
       <c r="C138" s="2">
         <v>45663</v>
@@ -4852,12 +4852,12 @@
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" t="s">
         <v>63</v>
-      </c>
-      <c r="B139" t="s">
-        <v>64</v>
       </c>
       <c r="C139" s="2">
         <v>45663</v>
@@ -4883,12 +4883,12 @@
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" t="s">
         <v>63</v>
-      </c>
-      <c r="B140" t="s">
-        <v>64</v>
       </c>
       <c r="C140" s="2">
         <v>45663</v>
@@ -4914,12 +4914,12 @@
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141" t="s">
         <v>63</v>
-      </c>
-      <c r="B141" t="s">
-        <v>64</v>
       </c>
       <c r="C141" s="2">
         <v>45663</v>
@@ -4945,12 +4945,12 @@
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142" t="s">
         <v>63</v>
-      </c>
-      <c r="B142" t="s">
-        <v>64</v>
       </c>
       <c r="C142" s="2">
         <v>45663</v>
@@ -4976,12 +4976,12 @@
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C143" s="2">
         <v>45719</v>
@@ -5007,12 +5007,12 @@
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C144" s="2">
         <v>45805</v>
@@ -5038,12 +5038,12 @@
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C145" s="2">
         <v>45805</v>
@@ -5069,12 +5069,12 @@
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C146" s="2">
         <v>45694</v>
@@ -5100,12 +5100,12 @@
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C147" s="2">
         <v>45694</v>
@@ -5131,12 +5131,12 @@
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C148" s="2">
         <v>45694</v>
@@ -5162,12 +5162,12 @@
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C149" s="2">
         <v>45694</v>
@@ -5193,12 +5193,12 @@
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C150" s="2">
         <v>45694</v>
@@ -5224,12 +5224,12 @@
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C151" s="2">
         <v>45694</v>
@@ -5255,12 +5255,12 @@
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
     </row>
-    <row r="152" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C152" s="2">
         <v>45818</v>
@@ -5286,12 +5286,12 @@
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
     </row>
-    <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B153" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C153" s="2">
         <v>45818</v>
@@ -5317,12 +5317,12 @@
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
     </row>
-    <row r="154" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B154" t="s">
         <v>69</v>
-      </c>
-      <c r="B154" t="s">
-        <v>70</v>
       </c>
       <c r="C154" s="2">
         <v>45778</v>
@@ -5348,12 +5348,12 @@
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
     </row>
-    <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>68</v>
+      </c>
+      <c r="B155" t="s">
         <v>69</v>
-      </c>
-      <c r="B155" t="s">
-        <v>70</v>
       </c>
       <c r="C155" s="2">
         <v>45778</v>
@@ -5379,12 +5379,12 @@
       <c r="N155" s="5"/>
       <c r="O155" s="5"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>68</v>
+      </c>
+      <c r="B156" t="s">
         <v>69</v>
-      </c>
-      <c r="B156" t="s">
-        <v>70</v>
       </c>
       <c r="C156" s="2">
         <v>45778</v>
@@ -5410,12 +5410,12 @@
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157" t="s">
         <v>69</v>
-      </c>
-      <c r="B157" t="s">
-        <v>70</v>
       </c>
       <c r="C157" s="2">
         <v>45778</v>
@@ -5441,12 +5441,12 @@
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
     </row>
-    <row r="158" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B158" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C158" s="2">
         <v>45768</v>
@@ -5472,12 +5472,12 @@
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
     </row>
-    <row r="159" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>14</v>
       </c>
       <c r="B159" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C159" s="2">
         <v>45768</v>
@@ -5503,12 +5503,12 @@
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>14</v>
       </c>
       <c r="B160" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C160" s="2">
         <v>45768</v>
@@ -5534,12 +5534,12 @@
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B161" t="s">
         <v>72</v>
-      </c>
-      <c r="B161" t="s">
-        <v>73</v>
       </c>
       <c r="C161" s="2">
         <v>45778</v>
@@ -5565,12 +5565,12 @@
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>71</v>
+      </c>
+      <c r="B162" t="s">
         <v>72</v>
-      </c>
-      <c r="B162" t="s">
-        <v>73</v>
       </c>
       <c r="C162" s="2">
         <v>45778</v>
@@ -5596,12 +5596,12 @@
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>71</v>
+      </c>
+      <c r="B163" t="s">
         <v>72</v>
-      </c>
-      <c r="B163" t="s">
-        <v>73</v>
       </c>
       <c r="C163" s="2">
         <v>45778</v>
@@ -5627,12 +5627,12 @@
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>71</v>
+      </c>
+      <c r="B164" t="s">
         <v>72</v>
-      </c>
-      <c r="B164" t="s">
-        <v>73</v>
       </c>
       <c r="C164" s="2">
         <v>45778</v>
@@ -5658,12 +5658,12 @@
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>71</v>
+      </c>
+      <c r="B165" t="s">
         <v>72</v>
-      </c>
-      <c r="B165" t="s">
-        <v>73</v>
       </c>
       <c r="C165" s="2">
         <v>45778</v>
@@ -5689,12 +5689,12 @@
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>71</v>
+      </c>
+      <c r="B166" t="s">
         <v>72</v>
-      </c>
-      <c r="B166" t="s">
-        <v>73</v>
       </c>
       <c r="C166" s="2">
         <v>45778</v>
@@ -5720,12 +5720,12 @@
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B167" t="s">
         <v>72</v>
-      </c>
-      <c r="B167" t="s">
-        <v>73</v>
       </c>
       <c r="C167" s="2">
         <v>45778</v>
@@ -5751,12 +5751,12 @@
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>71</v>
+      </c>
+      <c r="B168" t="s">
         <v>72</v>
-      </c>
-      <c r="B168" t="s">
-        <v>73</v>
       </c>
       <c r="C168" s="2">
         <v>45778</v>
@@ -5782,12 +5782,12 @@
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>71</v>
+      </c>
+      <c r="B169" t="s">
         <v>72</v>
-      </c>
-      <c r="B169" t="s">
-        <v>73</v>
       </c>
       <c r="C169" s="2">
         <v>45778</v>
@@ -5813,12 +5813,12 @@
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" t="s">
         <v>72</v>
-      </c>
-      <c r="B170" t="s">
-        <v>73</v>
       </c>
       <c r="C170" s="2">
         <v>45778</v>
@@ -5844,12 +5844,12 @@
       <c r="N170" s="5"/>
       <c r="O170" s="5"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171" t="s">
         <v>72</v>
-      </c>
-      <c r="B171" t="s">
-        <v>73</v>
       </c>
       <c r="C171" s="2">
         <v>45778</v>
@@ -5875,12 +5875,12 @@
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>71</v>
+      </c>
+      <c r="B172" t="s">
         <v>72</v>
-      </c>
-      <c r="B172" t="s">
-        <v>73</v>
       </c>
       <c r="C172" s="2">
         <v>45778</v>
@@ -5906,12 +5906,12 @@
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>71</v>
+      </c>
+      <c r="B173" t="s">
         <v>72</v>
-      </c>
-      <c r="B173" t="s">
-        <v>73</v>
       </c>
       <c r="C173" s="2">
         <v>45778</v>
@@ -5937,12 +5937,12 @@
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>71</v>
+      </c>
+      <c r="B174" t="s">
         <v>72</v>
-      </c>
-      <c r="B174" t="s">
-        <v>73</v>
       </c>
       <c r="C174" s="2">
         <v>45778</v>
@@ -5968,12 +5968,12 @@
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C175" s="2">
         <v>45834</v>
@@ -5999,12 +5999,12 @@
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C176" s="2">
         <v>45834</v>
@@ -6030,9 +6030,9 @@
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B177" t="s">
         <v>19</v>
@@ -6061,9 +6061,9 @@
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
     </row>
-    <row r="178" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B178" t="s">
         <v>20</v>
@@ -6092,7 +6092,7 @@
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
     </row>
-    <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -6123,12 +6123,12 @@
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C180" s="2">
         <v>45852</v>
@@ -6155,12 +6155,12 @@
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C181" s="2">
         <v>45852</v>
@@ -6187,12 +6187,12 @@
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B182" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C182" s="2">
         <v>45845</v>
@@ -6218,12 +6218,12 @@
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>22</v>
       </c>
       <c r="B183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C183" s="2">
         <v>45845</v>
@@ -6249,12 +6249,12 @@
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
     </row>
-    <row r="184" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>22</v>
       </c>
       <c r="B184" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C184" s="2">
         <v>45901</v>
@@ -6280,12 +6280,12 @@
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
     </row>
-    <row r="185" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>22</v>
       </c>
       <c r="B185" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C185" s="2">
         <v>45901</v>
@@ -6312,12 +6312,12 @@
       <c r="N185" s="5"/>
       <c r="O185" s="5"/>
     </row>
-    <row r="186" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>22</v>
       </c>
       <c r="B186" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C186" s="2">
         <v>45888</v>
@@ -6330,18 +6330,18 @@
       </c>
       <c r="G186" s="3"/>
       <c r="H186" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I186" s="2"/>
       <c r="N186" s="5"/>
       <c r="O186" s="5"/>
     </row>
-    <row r="187" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>23</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C187" s="2">
         <v>45883</v>
@@ -6367,12 +6367,12 @@
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
     </row>
-    <row r="188" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C188" s="2">
         <v>45883</v>
@@ -6398,12 +6398,12 @@
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>83</v>
+      </c>
+      <c r="B189" t="s">
         <v>84</v>
-      </c>
-      <c r="B189" t="s">
-        <v>85</v>
       </c>
       <c r="C189" s="2">
         <v>45867</v>
@@ -6427,12 +6427,12 @@
         <v>45862</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>22</v>
       </c>
       <c r="B190" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C190" s="2">
         <v>45888</v>
@@ -6456,12 +6456,12 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C191" s="2">
         <v>45905</v>
@@ -6485,12 +6485,12 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C192" s="2">
         <v>45905</v>
@@ -6514,12 +6514,12 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B193" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C193" s="2">
         <v>45895</v>
@@ -6544,12 +6544,12 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C194" s="2">
         <v>45923</v>
@@ -6573,12 +6573,12 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C195" s="2">
         <v>45905</v>
@@ -6593,15 +6593,15 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C196" s="2">
         <v>45905</v>
@@ -6622,12 +6622,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C197" s="2">
         <v>45905</v>
@@ -6672,43 +6672,43 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>84904</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>51512</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>49667</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>SUM(A1:A3)</f>
         <v>186083</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>122202733732</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>126971710115</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <f>A7-A6</f>
         <v>4768976383</v>

--- a/data/Long_Format_Payment_Terms.xlsx
+++ b/data/Long_Format_Payment_Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Kerja INA\2025\1. Monthly Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76333265-5343-429B-8B95-B8B2E8C6BF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE5B82C-FBF4-9E40-9437-5BE6AF479FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Koma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,28 +738,28 @@
   <dimension ref="A1:O239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C195" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G223" sqref="G223"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="80.88671875" customWidth="1"/>
+    <col min="1" max="1" width="49.1640625" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -811,13 +811,13 @@
         <v>131619360</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2">
         <v>45085</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -846,7 +846,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -875,7 +875,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -904,7 +904,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -933,7 +933,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -962,7 +962,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -991,7 +991,7 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>45721</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>8</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>45936</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>8</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>8</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>11</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>45345</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>45695</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>45897</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>40</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>45884</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>45938</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>45951</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>40</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>7</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>45702</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>13</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>45784</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>9</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>45671</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>47</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>47</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>47</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>47</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>47</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>47</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>47</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>47</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>47</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>47</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>47</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -4246,7 +4246,7 @@
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>47</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -4339,7 +4339,7 @@
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>49</v>
       </c>
@@ -4370,7 +4370,7 @@
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>51</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>53</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>55</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>55</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>12</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="N132" s="5"/>
       <c r="O132" s="5"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="N133" s="5"/>
       <c r="O133" s="5"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4711,7 +4711,7 @@
       <c r="N134" s="5"/>
       <c r="O134" s="5"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>24</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>10</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>58</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>58</v>
       </c>
@@ -5050,7 +5050,7 @@
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>58</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>11</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
     </row>
-    <row r="152" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>11</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="N152" s="12"/>
       <c r="O152" s="12"/>
     </row>
-    <row r="153" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>11</v>
       </c>
@@ -5298,7 +5298,7 @@
       <c r="N153" s="12"/>
       <c r="O153" s="12"/>
     </row>
-    <row r="154" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="N154" s="12"/>
       <c r="O154" s="12"/>
     </row>
-    <row r="155" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>11</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="N155" s="12"/>
       <c r="O155" s="12"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>12</v>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>63</v>
       </c>
@@ -5484,7 +5484,7 @@
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>63</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>63</v>
       </c>
@@ -5546,7 +5546,7 @@
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>63</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>63</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>63</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>63</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>63</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>63</v>
       </c>
@@ -5732,7 +5732,7 @@
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>63</v>
       </c>
@@ -5763,7 +5763,7 @@
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>49</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="N170" s="5"/>
       <c r="O170" s="5"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -5856,7 +5856,7 @@
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -5918,7 +5918,7 @@
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -6042,7 +6042,7 @@
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
     </row>
-    <row r="179" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>58</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
     </row>
-    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>58</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
     </row>
-    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>58</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
     </row>
-    <row r="182" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>69</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
     </row>
-    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>69</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>69</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>69</v>
       </c>
@@ -6290,7 +6290,7 @@
       <c r="N185" s="5"/>
       <c r="O185" s="5"/>
     </row>
-    <row r="186" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>14</v>
       </c>
@@ -6321,7 +6321,7 @@
       <c r="N186" s="5"/>
       <c r="O186" s="5"/>
     </row>
-    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>72</v>
       </c>
@@ -6414,7 +6414,7 @@
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>72</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>72</v>
       </c>
@@ -6476,7 +6476,7 @@
       <c r="N191" s="5"/>
       <c r="O191" s="5"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>72</v>
       </c>
@@ -6507,7 +6507,7 @@
       <c r="N192" s="5"/>
       <c r="O192" s="5"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>72</v>
       </c>
@@ -6538,7 +6538,7 @@
       <c r="N193" s="5"/>
       <c r="O193" s="5"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>72</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="N194" s="5"/>
       <c r="O194" s="5"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>72</v>
       </c>
@@ -6600,7 +6600,7 @@
       <c r="N195" s="5"/>
       <c r="O195" s="5"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>72</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="N196" s="5"/>
       <c r="O196" s="5"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>72</v>
       </c>
@@ -6662,7 +6662,7 @@
       <c r="N197" s="5"/>
       <c r="O197" s="5"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>72</v>
       </c>
@@ -6693,7 +6693,7 @@
       <c r="N198" s="5"/>
       <c r="O198" s="5"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>72</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="N199" s="5"/>
       <c r="O199" s="5"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>72</v>
       </c>
@@ -6755,7 +6755,7 @@
       <c r="N200" s="5"/>
       <c r="O200" s="5"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>72</v>
       </c>
@@ -6786,7 +6786,7 @@
       <c r="N201" s="5"/>
       <c r="O201" s="5"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>72</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="N202" s="5"/>
       <c r="O202" s="5"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>72</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="5"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>72</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="N204" s="5"/>
       <c r="O204" s="5"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>72</v>
       </c>
@@ -6910,7 +6910,7 @@
       <c r="N205" s="5"/>
       <c r="O205" s="5"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>72</v>
       </c>
@@ -6941,7 +6941,7 @@
       <c r="N206" s="5"/>
       <c r="O206" s="5"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>72</v>
       </c>
@@ -6972,7 +6972,7 @@
       <c r="N207" s="5"/>
       <c r="O207" s="5"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>72</v>
       </c>
@@ -7003,7 +7003,7 @@
       <c r="N208" s="5"/>
       <c r="O208" s="5"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>9</v>
       </c>
@@ -7034,7 +7034,7 @@
       <c r="N209" s="5"/>
       <c r="O209" s="5"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -7065,7 +7065,7 @@
       <c r="N210" s="5"/>
       <c r="O210" s="5"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>58</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="N211" s="5"/>
       <c r="O211" s="5"/>
     </row>
-    <row r="212" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>58</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="N212" s="5"/>
       <c r="O212" s="5"/>
     </row>
-    <row r="213" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="N213" s="5"/>
       <c r="O213" s="5"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>10</v>
       </c>
@@ -7190,7 +7190,7 @@
       <c r="N214" s="5"/>
       <c r="O214" s="5"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -7222,7 +7222,7 @@
       <c r="N215" s="5"/>
       <c r="O215" s="5"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>22</v>
       </c>
@@ -7253,7 +7253,7 @@
       <c r="N216" s="5"/>
       <c r="O216" s="5"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>22</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="N217" s="5"/>
       <c r="O217" s="5"/>
     </row>
-    <row r="218" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>22</v>
       </c>
@@ -7315,7 +7315,7 @@
       <c r="N218" s="5"/>
       <c r="O218" s="5"/>
     </row>
-    <row r="219" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="N219" s="5"/>
       <c r="O219" s="5"/>
     </row>
-    <row r="220" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="N220" s="5"/>
       <c r="O220" s="5"/>
     </row>
-    <row r="221" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -7402,7 +7402,7 @@
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
     </row>
-    <row r="222" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -7433,7 +7433,7 @@
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
     </row>
-    <row r="223" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -7459,7 +7459,7 @@
       <c r="N223" s="5"/>
       <c r="O223" s="5"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>84</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>45862</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>22</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>58</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>58</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>45957</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>93</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>93</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>93</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>95</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>95</v>
       </c>
@@ -7921,43 +7921,43 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>84904</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>51512</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>49667</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>SUM(A1:A3)</f>
         <v>186083</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>122202733732</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>126971710115</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <f>A7-A6</f>
         <v>4768976383</v>

--- a/data/Long_Format_Payment_Terms.xlsx
+++ b/data/Long_Format_Payment_Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE5B82C-FBF4-9E40-9437-5BE6AF479FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0552A3D-AF83-DB4B-90D6-153248269E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>131619360</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>80</v>

--- a/data/Long_Format_Payment_Terms.xlsx
+++ b/data/Long_Format_Payment_Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0552A3D-AF83-DB4B-90D6-153248269E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77816C2-1A71-AD49-9471-204B50B55577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>131619360</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2">
         <v>45085</v>

--- a/data/Long_Format_Payment_Terms.xlsx
+++ b/data/Long_Format_Payment_Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77816C2-1A71-AD49-9471-204B50B55577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A836B1FC-B085-0040-B1BE-792702E68F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>131619360</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2">
         <v>45085</v>

--- a/data/Long_Format_Payment_Terms.xlsx
+++ b/data/Long_Format_Payment_Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A836B1FC-B085-0040-B1BE-792702E68F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC101A5-AB8B-1847-B0F8-F0441145AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>131619360</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2">
         <v>45085</v>

--- a/data/Long_Format_Payment_Terms.xlsx
+++ b/data/Long_Format_Payment_Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Kerja INA\2025\1. Monthly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC101A5-AB8B-1847-B0F8-F0441145AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76333265-5343-429B-8B95-B8B2E8C6BF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Koma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,28 +738,28 @@
   <dimension ref="A1:O239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.1640625" customWidth="1"/>
-    <col min="2" max="2" width="80.83203125" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -817,7 +817,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -846,7 +846,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -875,7 +875,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -904,7 +904,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -933,7 +933,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -962,7 +962,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -991,7 +991,7 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>45620</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>45721</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>8</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>45936</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>8</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>8</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>11</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>45345</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>45695</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>45897</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>40</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>45884</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>45938</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>45951</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>40</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>7</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>45702</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>13</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>45784</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>9</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>45671</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>47</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>47</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>47</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>47</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>47</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>47</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>47</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>47</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>47</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>47</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>47</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -4246,7 +4246,7 @@
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>47</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -4339,7 +4339,7 @@
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>49</v>
       </c>
@@ -4370,7 +4370,7 @@
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>51</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>53</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>55</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>55</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>12</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="N132" s="5"/>
       <c r="O132" s="5"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="N133" s="5"/>
       <c r="O133" s="5"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4711,7 +4711,7 @@
       <c r="N134" s="5"/>
       <c r="O134" s="5"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>24</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>10</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>58</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>58</v>
       </c>
@@ -5050,7 +5050,7 @@
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>58</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>11</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
     </row>
-    <row r="152" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>11</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="N152" s="12"/>
       <c r="O152" s="12"/>
     </row>
-    <row r="153" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>11</v>
       </c>
@@ -5298,7 +5298,7 @@
       <c r="N153" s="12"/>
       <c r="O153" s="12"/>
     </row>
-    <row r="154" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="N154" s="12"/>
       <c r="O154" s="12"/>
     </row>
-    <row r="155" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>11</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="N155" s="12"/>
       <c r="O155" s="12"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>12</v>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>63</v>
       </c>
@@ -5484,7 +5484,7 @@
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>63</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>63</v>
       </c>
@@ -5546,7 +5546,7 @@
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>63</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>63</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>63</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>63</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>63</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>63</v>
       </c>
@@ -5732,7 +5732,7 @@
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>63</v>
       </c>
@@ -5763,7 +5763,7 @@
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>49</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="N170" s="5"/>
       <c r="O170" s="5"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -5856,7 +5856,7 @@
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -5918,7 +5918,7 @@
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -6042,7 +6042,7 @@
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
     </row>
-    <row r="179" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>58</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
     </row>
-    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>58</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
     </row>
-    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>58</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
     </row>
-    <row r="182" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>69</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
     </row>
-    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>69</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>69</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>69</v>
       </c>
@@ -6290,7 +6290,7 @@
       <c r="N185" s="5"/>
       <c r="O185" s="5"/>
     </row>
-    <row r="186" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>14</v>
       </c>
@@ -6321,7 +6321,7 @@
       <c r="N186" s="5"/>
       <c r="O186" s="5"/>
     </row>
-    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>72</v>
       </c>
@@ -6414,7 +6414,7 @@
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>72</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>72</v>
       </c>
@@ -6476,7 +6476,7 @@
       <c r="N191" s="5"/>
       <c r="O191" s="5"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>72</v>
       </c>
@@ -6507,7 +6507,7 @@
       <c r="N192" s="5"/>
       <c r="O192" s="5"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>72</v>
       </c>
@@ -6538,7 +6538,7 @@
       <c r="N193" s="5"/>
       <c r="O193" s="5"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>72</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="N194" s="5"/>
       <c r="O194" s="5"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>72</v>
       </c>
@@ -6600,7 +6600,7 @@
       <c r="N195" s="5"/>
       <c r="O195" s="5"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>72</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="N196" s="5"/>
       <c r="O196" s="5"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>72</v>
       </c>
@@ -6662,7 +6662,7 @@
       <c r="N197" s="5"/>
       <c r="O197" s="5"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>72</v>
       </c>
@@ -6693,7 +6693,7 @@
       <c r="N198" s="5"/>
       <c r="O198" s="5"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>72</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="N199" s="5"/>
       <c r="O199" s="5"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>72</v>
       </c>
@@ -6755,7 +6755,7 @@
       <c r="N200" s="5"/>
       <c r="O200" s="5"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>72</v>
       </c>
@@ -6786,7 +6786,7 @@
       <c r="N201" s="5"/>
       <c r="O201" s="5"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>72</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="N202" s="5"/>
       <c r="O202" s="5"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>72</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="5"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>72</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="N204" s="5"/>
       <c r="O204" s="5"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>72</v>
       </c>
@@ -6910,7 +6910,7 @@
       <c r="N205" s="5"/>
       <c r="O205" s="5"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>72</v>
       </c>
@@ -6941,7 +6941,7 @@
       <c r="N206" s="5"/>
       <c r="O206" s="5"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>72</v>
       </c>
@@ -6972,7 +6972,7 @@
       <c r="N207" s="5"/>
       <c r="O207" s="5"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>72</v>
       </c>
@@ -7003,7 +7003,7 @@
       <c r="N208" s="5"/>
       <c r="O208" s="5"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>9</v>
       </c>
@@ -7034,7 +7034,7 @@
       <c r="N209" s="5"/>
       <c r="O209" s="5"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -7065,7 +7065,7 @@
       <c r="N210" s="5"/>
       <c r="O210" s="5"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>58</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="N211" s="5"/>
       <c r="O211" s="5"/>
     </row>
-    <row r="212" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>58</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="N212" s="5"/>
       <c r="O212" s="5"/>
     </row>
-    <row r="213" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="N213" s="5"/>
       <c r="O213" s="5"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>10</v>
       </c>
@@ -7190,7 +7190,7 @@
       <c r="N214" s="5"/>
       <c r="O214" s="5"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -7222,7 +7222,7 @@
       <c r="N215" s="5"/>
       <c r="O215" s="5"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>22</v>
       </c>
@@ -7253,7 +7253,7 @@
       <c r="N216" s="5"/>
       <c r="O216" s="5"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>22</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="N217" s="5"/>
       <c r="O217" s="5"/>
     </row>
-    <row r="218" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>22</v>
       </c>
@@ -7315,7 +7315,7 @@
       <c r="N218" s="5"/>
       <c r="O218" s="5"/>
     </row>
-    <row r="219" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="N219" s="5"/>
       <c r="O219" s="5"/>
     </row>
-    <row r="220" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="N220" s="5"/>
       <c r="O220" s="5"/>
     </row>
-    <row r="221" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -7402,7 +7402,7 @@
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
     </row>
-    <row r="222" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -7433,7 +7433,7 @@
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
     </row>
-    <row r="223" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -7459,7 +7459,7 @@
       <c r="N223" s="5"/>
       <c r="O223" s="5"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>84</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>45862</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>22</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>58</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>58</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>45957</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>93</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>93</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>93</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>95</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>95</v>
       </c>
@@ -7921,43 +7921,43 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>84904</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51512</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>49667</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>SUM(A1:A3)</f>
         <v>186083</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>122202733732</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>126971710115</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>A7-A6</f>
         <v>4768976383</v>

--- a/data/Long_Format_Payment_Terms.xlsx
+++ b/data/Long_Format_Payment_Terms.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Kerja INA\2025\1. Monthly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76333265-5343-429B-8B95-B8B2E8C6BF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC9A03-76CE-4389-BE80-BB2E37683082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Lembar1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$247</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="129">
   <si>
     <t>VENDOR</t>
   </si>
@@ -160,15 +163,9 @@
     <t>PT A VAN KAICK INDONESIA</t>
   </si>
   <si>
-    <t>JASA PENGADAAN GENERATOR SET (GENSET) DI SUMBAWA</t>
-  </si>
-  <si>
     <t>JASA TENAGA AHLI</t>
   </si>
   <si>
-    <t>JASA INSTALASI GENSET</t>
-  </si>
-  <si>
     <t>PEKERJAAN PROYEK PEMBANGUNAN TAMBAK UDANG SUMBAWA (BANGUNAN FASILITAS UTAMA TAHAP 1A)</t>
   </si>
   <si>
@@ -326,6 +323,108 @@
   </si>
   <si>
     <t>Pengadaan Barang dan Jasa Tambak Udang Sumbawa</t>
+  </si>
+  <si>
+    <t>RAJAWALI KONSULTAN</t>
+  </si>
+  <si>
+    <t>KONTRAK JASA PAJAK</t>
+  </si>
+  <si>
+    <t>JASA PENGADAAN DAN INSTALASI GENERATOR SET (GENSET) DI SUMBAWA</t>
+  </si>
+  <si>
+    <t>PEKERJAAN PUMP HOUSE AREA POND</t>
+  </si>
+  <si>
+    <t>PAGAR PANEL 372.5M (LAHAN BARU)</t>
+  </si>
+  <si>
+    <t>INNAQU &amp; RAJAWALI FIRM</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;MIPCON</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;ASR</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;ENVITEK</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;ABB</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;ATK</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;GEI</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;TBA</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;AVK</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;PDM</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;KSO PDS</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;LDS</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;EBS</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;LMATS</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;IMI</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;Ady Tulus</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;ESTER HENDRA</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;KAP BUDIARTHA</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;ADT</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;CV ALFI</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;DENI GUSTARIANA</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;REALIS</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;SCB</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;MAA</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;PARAHITA</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;TRADECORP</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;KKA ARYA</t>
+  </si>
+  <si>
+    <t>INNAQU &amp;KSO LMA</t>
+  </si>
+  <si>
+    <t>INNAQU&amp;ABA</t>
   </si>
 </sst>
 </file>
@@ -361,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +476,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -429,6 +534,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Koma" xfId="1" builtinId="3"/>
@@ -445,6 +553,707 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet1 (2)"/>
+      <sheetName val="Data Kontrak"/>
+      <sheetName val="DATA KONTRAK UPDATE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="J1" t="str">
+            <v>Ket.</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>Realisasi On  2023-2024</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>Realisasi On  2025</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="J2" t="str">
+            <v>INNAQU &amp; RAJAWALI FIRM</v>
+          </cell>
+          <cell r="N2">
+            <v>36000000</v>
+          </cell>
+          <cell r="O2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3" t="str">
+            <v>INNAQU&amp;MIPCON</v>
+          </cell>
+          <cell r="N3">
+            <v>658096800</v>
+          </cell>
+          <cell r="O3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4" t="str">
+            <v>INNAQU&amp;ASR</v>
+          </cell>
+          <cell r="N4">
+            <v>3006046500.0000005</v>
+          </cell>
+          <cell r="O4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5" t="str">
+            <v>INNAQU&amp;ASR</v>
+          </cell>
+          <cell r="N5">
+            <v>0</v>
+          </cell>
+          <cell r="O5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6" t="str">
+            <v>INNAQU&amp;ENVITEK</v>
+          </cell>
+          <cell r="N6">
+            <v>1139250000</v>
+          </cell>
+          <cell r="O6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7" t="str">
+            <v>INNAQU&amp;ENVITEK</v>
+          </cell>
+          <cell r="N7">
+            <v>0</v>
+          </cell>
+          <cell r="O7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8" t="str">
+            <v>INNAQU&amp;ABB</v>
+          </cell>
+          <cell r="N8">
+            <v>0</v>
+          </cell>
+          <cell r="O8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9" t="str">
+            <v>INNAQU&amp;ABB</v>
+          </cell>
+          <cell r="N9">
+            <v>673475225</v>
+          </cell>
+          <cell r="O9">
+            <v>3076027682</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10" t="str">
+            <v>INNAQU&amp;ATK</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11" t="str">
+            <v>INNAQU&amp;ATK</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12" t="str">
+            <v>INNAQU&amp;ATK</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13" t="str">
+            <v>INNAQU&amp;ATK</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14" t="str">
+            <v>INNAQU&amp;ATK</v>
+          </cell>
+          <cell r="N14">
+            <v>1282848184</v>
+          </cell>
+          <cell r="O14">
+            <v>1977698135</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15" t="str">
+            <v>INNAQU&amp;GEI</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="J16" t="str">
+            <v>INNAQU&amp;GEI</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="J17" t="str">
+            <v>INNAQU&amp;GEI</v>
+          </cell>
+          <cell r="N17">
+            <v>223076700</v>
+          </cell>
+          <cell r="O17">
+            <v>175182975</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18" t="str">
+            <v>INNAQU&amp;TBA</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="J19" t="str">
+            <v>INNAQU&amp;TBA</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="J20" t="str">
+            <v>INNAQU&amp;TBA</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="J21" t="str">
+            <v>INNAQU&amp;TBA</v>
+          </cell>
+          <cell r="N21">
+            <v>6152132315</v>
+          </cell>
+          <cell r="O21">
+            <v>900592183</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="J22" t="str">
+            <v>INNAQU&amp;AVK</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="J23" t="str">
+            <v>INNAQU&amp;AVK</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="J24" t="str">
+            <v>INNAQU&amp;AVK</v>
+          </cell>
+          <cell r="N24">
+            <v>2686200000</v>
+          </cell>
+          <cell r="O24">
+            <v>5007987000</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25" t="str">
+            <v>INNAQU&amp;PDM</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="J26" t="str">
+            <v>INNAQU&amp;KSO PDS</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="J27" t="str">
+            <v>INNAQU&amp;KSO PDS</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="J28" t="str">
+            <v>INNAQU&amp;KSO PDS</v>
+          </cell>
+          <cell r="N28">
+            <v>42089567738</v>
+          </cell>
+          <cell r="O28">
+            <v>13653760550</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="J29" t="str">
+            <v>INNAQU&amp;PDM</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="J30" t="str">
+            <v>INNAQU&amp;PDM</v>
+          </cell>
+          <cell r="N30">
+            <v>2186902527</v>
+          </cell>
+          <cell r="O30">
+            <v>109345126</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="J31" t="str">
+            <v>INNAQU&amp;KSO PDS</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="J32" t="str">
+            <v>INNAQU&amp;LDS</v>
+          </cell>
+          <cell r="N32">
+            <v>0</v>
+          </cell>
+          <cell r="O32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="J33" t="str">
+            <v>INNAQU&amp;LDS</v>
+          </cell>
+          <cell r="O33">
+            <v>6634485850</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="J34" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="J35" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="J36" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+          <cell r="N36">
+            <v>1285728153</v>
+          </cell>
+          <cell r="O36">
+            <v>1679009670</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="J37" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="J38" t="str">
+            <v>INNAQU&amp;LMATS</v>
+          </cell>
+          <cell r="N38">
+            <v>16650000</v>
+          </cell>
+          <cell r="O38">
+            <v>40515000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="J39" t="str">
+            <v>INNAQU&amp;IMI</v>
+          </cell>
+          <cell r="N39">
+            <v>360000000</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="J40" t="str">
+            <v>INNAQU&amp;Ady Tulus</v>
+          </cell>
+          <cell r="N40">
+            <v>408000000</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="J41" t="str">
+            <v>INNAQU&amp;ESTER HENDRA</v>
+          </cell>
+          <cell r="N41">
+            <v>18333333</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="J42" t="str">
+            <v>INNAQU&amp;KAP BUDIARTHA</v>
+          </cell>
+          <cell r="N42">
+            <v>32500000</v>
+          </cell>
+          <cell r="O42">
+            <v>32500000</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="J43" t="str">
+            <v>INNAQU&amp;LDS</v>
+          </cell>
+          <cell r="N43">
+            <v>553929516</v>
+          </cell>
+          <cell r="O43">
+            <v>714187102</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="J44" t="str">
+            <v>INNAQU&amp;ENVITEK</v>
+          </cell>
+          <cell r="N44">
+            <v>604166063</v>
+          </cell>
+          <cell r="O44">
+            <v>258928313</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="J45" t="str">
+            <v>INNAQU&amp;ADT</v>
+          </cell>
+          <cell r="N45">
+            <v>190643863</v>
+          </cell>
+          <cell r="O45">
+            <v>7620862</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="J46" t="str">
+            <v>INNAQU&amp;ADT</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="J47" t="str">
+            <v>INNAQU&amp;GEI</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="J48" t="str">
+            <v>INNAQU&amp;GEI</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="J49" t="str">
+            <v>INNAQU&amp;GEI</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="J50" t="str">
+            <v>INNAQU&amp;GEI</v>
+          </cell>
+          <cell r="N50">
+            <v>159373578</v>
+          </cell>
+          <cell r="O50">
+            <v>381460602</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="J51" t="str">
+            <v>INNAQU&amp;LDS</v>
+          </cell>
+          <cell r="N51">
+            <v>0</v>
+          </cell>
+          <cell r="O51">
+            <v>467017214</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="J52" t="str">
+            <v>INNAQU&amp;CV ALFI</v>
+          </cell>
+          <cell r="N52">
+            <v>0</v>
+          </cell>
+          <cell r="O52">
+            <v>185300000</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="J53" t="str">
+            <v>INNAQU&amp;IMI</v>
+          </cell>
+          <cell r="N53">
+            <v>0</v>
+          </cell>
+          <cell r="O53">
+            <v>26737800</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="J54" t="str">
+            <v>INNAQU&amp;ENVITEK</v>
+          </cell>
+          <cell r="N54">
+            <v>0</v>
+          </cell>
+          <cell r="O54">
+            <v>964368000</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="J55" t="str">
+            <v>INNAQU&amp;ADT</v>
+          </cell>
+          <cell r="N55">
+            <v>0</v>
+          </cell>
+          <cell r="O55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="J56" t="str">
+            <v>INNAQU&amp;ADT</v>
+          </cell>
+          <cell r="N56">
+            <v>0</v>
+          </cell>
+          <cell r="O56">
+            <v>197060201</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="J57" t="str">
+            <v>INNAQU&amp;DENI GUSTARIANA</v>
+          </cell>
+          <cell r="N57">
+            <v>0</v>
+          </cell>
+          <cell r="O57">
+            <v>344444444</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="J58" t="str">
+            <v>INNAQU&amp;REALIS</v>
+          </cell>
+          <cell r="O58">
+            <v>145543755</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="J59" t="str">
+            <v>INNAQU&amp;SCB</v>
+          </cell>
+          <cell r="N59">
+            <v>0</v>
+          </cell>
+          <cell r="O59">
+            <v>2416173507</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="J60" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="J61" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="J62" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+          <cell r="O62">
+            <v>178710000</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="J63" t="str">
+            <v>INNAQU&amp;LDS</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="J64" t="str">
+            <v>INNAQU&amp;LDS</v>
+          </cell>
+          <cell r="N64">
+            <v>0</v>
+          </cell>
+          <cell r="O64">
+            <v>420072989</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="J65" t="str">
+            <v>INNAQU&amp;ENVITEK</v>
+          </cell>
+          <cell r="O65">
+            <v>612720000</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="J66" t="str">
+            <v>INNAQU&amp;MAA</v>
+          </cell>
+          <cell r="O66">
+            <v>296691935</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="J67" t="str">
+            <v>INNAQU&amp;MAA</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="J68" t="str">
+            <v>INNAQU&amp;MAA</v>
+          </cell>
+          <cell r="O68">
+            <v>1683179940</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="J69" t="str">
+            <v>INNAQU&amp;MAA</v>
+          </cell>
+          <cell r="O69">
+            <v>194572740</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="J70" t="str">
+            <v>INNAQU&amp;PARAHITA</v>
+          </cell>
+          <cell r="O70">
+            <v>14239617744</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="J71" t="str">
+            <v>INNAQU&amp;TRADECORP</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="J72" t="str">
+            <v>INNAQU&amp;TRADECORP</v>
+          </cell>
+          <cell r="O72">
+            <v>1455250420</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="J73" t="str">
+            <v>INNAQU&amp;KKA ARYA</v>
+          </cell>
+          <cell r="O73">
+            <v>11100000.000000002</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="J74" t="str">
+            <v>INNAQU&amp;MAA</v>
+          </cell>
+          <cell r="O74">
+            <v>1694581500</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="J75" t="str">
+            <v>INNAQU&amp;ADT</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="J76" t="str">
+            <v>INNAQU&amp;ADT</v>
+          </cell>
+          <cell r="O76">
+            <v>1396621095</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="J77" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+          <cell r="O77">
+            <v>1454747637</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="J78" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+          <cell r="O78">
+            <v>89287029</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="J79" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+          <cell r="O79">
+            <v>274525953</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="J80" t="str">
+            <v>INNAQU&amp;EBS</v>
+          </cell>
+          <cell r="O80">
+            <v>355277186</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="J81" t="str">
+            <v>INNAQU&amp;ADT</v>
+          </cell>
+          <cell r="O81">
+            <v>1226005590</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="J82" t="str">
+            <v>INNAQU &amp;KSO LMA</v>
+          </cell>
+          <cell r="O82">
+            <v>23906583839</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="J83" t="str">
+            <v>INNAQU&amp;ABA</v>
+          </cell>
+          <cell r="O83">
+            <v>1461650590</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="J84" t="str">
+            <v>INNAQU&amp;KAP BUDIARTHA</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,13 +1544,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O239"/>
+  <dimension ref="A1:O247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C195" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G223" sqref="G223"/>
+      <selection pane="bottomRight" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,37 +1597,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
-        <v>45075</v>
+        <v>45834</v>
       </c>
       <c r="D2" s="2">
-        <v>45135</v>
+        <v>45469</v>
       </c>
       <c r="E2" s="3">
-        <v>658096800</v>
+        <v>36000000</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>131619360</v>
+        <v>36000000</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="2">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
@@ -834,19 +1643,19 @@
         <v>658096800</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>460667760</v>
+        <v>131619360</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -863,49 +1672,49 @@
         <v>658096800</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>460667760</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45075</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45135</v>
+      </c>
+      <c r="E5" s="3">
+        <v>658096800</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>65809680</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
         <v>45149</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45145</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45176</v>
-      </c>
-      <c r="E5" s="3">
-        <v>208291500</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>62487450</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2">
-        <v>45159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
@@ -921,48 +1730,48 @@
         <v>208291500</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>145804050</v>
+        <v>62487450</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="2">
-        <v>45163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <v>45145</v>
       </c>
       <c r="D7" s="2">
-        <v>45206</v>
+        <v>45176</v>
       </c>
       <c r="E7" s="3">
-        <v>2116770000</v>
+        <v>208291500</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="3">
-        <v>423354000</v>
+        <v>145804050</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="2">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -979,19 +1788,19 @@
         <v>2116770000</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1058385000</v>
+        <v>423354000</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="2">
-        <v>45328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1008,48 +1817,48 @@
         <v>2116770000</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>635031000</v>
+        <v>1058385000</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="2">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>45145</v>
       </c>
       <c r="D10" s="2">
-        <v>45267</v>
+        <v>45206</v>
       </c>
       <c r="E10" s="3">
-        <v>680985000</v>
+        <v>2116770000</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>136197000</v>
+        <v>635031000</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="2">
-        <v>45124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1066,19 +1875,19 @@
         <v>680985000</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>340492500</v>
+        <v>136197000</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="2">
-        <v>45194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1095,49 +1904,49 @@
         <v>680985000</v>
       </c>
       <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>340492500</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45145</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45267</v>
+      </c>
+      <c r="E13" s="3">
+        <v>680985000</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>204295500</v>
       </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2">
         <v>45222</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45160</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45373</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1139250000</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>227850000</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2">
-        <v>45162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -1153,19 +1962,19 @@
         <v>1139250000</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>341775000</v>
+        <v>227850000</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="2">
-        <v>45187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1991,7 @@
         <v>1139250000</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
         <v>341775000</v>
@@ -1191,10 +2000,10 @@
         <v>16</v>
       </c>
       <c r="I15" s="2">
-        <v>45498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1211,49 +2020,49 @@
         <v>1139250000</v>
       </c>
       <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>341775000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45160</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45373</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1139250000</v>
+      </c>
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>227850000</v>
       </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2">
         <v>45558</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45931</v>
-      </c>
-      <c r="E17" s="3">
-        <v>24056722803</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>21373328</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2">
-        <v>45253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
@@ -1269,19 +2078,19 @@
         <v>24056722803</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>21458696</v>
+        <v>21373328</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="2">
-        <v>45274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1298,19 +2107,19 @@
         <v>24056722803</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>22515586</v>
+        <v>21458696</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="2">
-        <v>45307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1327,19 +2136,19 @@
         <v>24056722803</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="3">
-        <v>23555856</v>
+        <v>22515586</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="2">
-        <v>45342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1356,19 +2165,19 @@
         <v>24056722803</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>25942356</v>
+        <v>23555856</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="2">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1385,19 +2194,19 @@
         <v>24056722803</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>34626609</v>
+        <v>25942356</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="2">
-        <v>45520</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1414,19 +2223,19 @@
         <v>24056722803</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="3">
-        <v>33612408</v>
+        <v>34626609</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="2">
-        <v>45420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1443,19 +2252,19 @@
         <v>24056722803</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="3">
-        <v>34209680</v>
+        <v>33612408</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="2">
-        <v>45459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1472,19 +2281,19 @@
         <v>24056722803</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="3">
-        <v>48061163</v>
+        <v>34209680</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="2">
-        <v>45465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1501,19 +2310,19 @@
         <v>24056722803</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="3">
-        <v>87594791</v>
+        <v>48061163</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="2">
-        <v>45520</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1530,19 +2339,19 @@
         <v>24056722803</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3">
-        <v>88660778</v>
+        <v>87594791</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <v>45558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1559,19 +2368,19 @@
         <v>24056722803</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="3">
-        <v>115744760</v>
+        <v>88660778</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
       </c>
       <c r="I28" s="2">
-        <v>45620</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1588,19 +2397,19 @@
         <v>24056722803</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="3">
-        <v>116119214</v>
+        <v>115744760</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="2">
-        <v>45602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1617,19 +2426,19 @@
         <v>24056722803</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="3">
-        <v>453255029</v>
+        <v>116119214</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="2">
-        <v>45688</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1646,19 +2455,19 @@
         <v>24056722803</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="3">
-        <v>136105522</v>
+        <v>453255029</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
       </c>
       <c r="I31" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1675,19 +2484,19 @@
         <v>24056722803</v>
       </c>
       <c r="F32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" s="3">
-        <v>507101495</v>
+        <v>136105522</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="2">
-        <v>45786</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1704,19 +2513,19 @@
         <v>24056722803</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="3">
-        <v>277730981</v>
+        <v>507101495</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
       </c>
       <c r="I33" s="2">
-        <v>45864</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1733,10 +2542,10 @@
         <v>24056722803</v>
       </c>
       <c r="F34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="3">
-        <v>356498779</v>
+        <v>277730981</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
@@ -1745,7 +2554,7 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1762,10 +2571,10 @@
         <v>24056722803</v>
       </c>
       <c r="F35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35" s="3">
-        <v>288259752</v>
+        <v>356498779</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -1774,7 +2583,7 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1791,19 +2600,19 @@
         <v>24056722803</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" s="3">
-        <v>137304754</v>
+        <v>288259752</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
       </c>
       <c r="I36" s="2">
-        <v>45931</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1820,10 +2629,10 @@
         <v>24056722803</v>
       </c>
       <c r="F37">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" s="3">
-        <v>100082931</v>
+        <v>137304754</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
@@ -1832,7 +2641,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1849,10 +2658,10 @@
         <v>24056722803</v>
       </c>
       <c r="F38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" s="3">
-        <v>227650897</v>
+        <v>100082931</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
@@ -1861,7 +2670,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1878,10 +2687,10 @@
         <v>24056722803</v>
       </c>
       <c r="F39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39" s="3">
-        <v>221962671</v>
+        <v>227650897</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -1890,7 +2699,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -1907,19 +2716,19 @@
         <v>24056722803</v>
       </c>
       <c r="F40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G40" s="3">
-        <v>98818195</v>
+        <v>221962671</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="2">
-        <v>45989</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1936,10 +2745,10 @@
         <v>24056722803</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G41" s="3">
-        <v>271256676</v>
+        <v>98818195</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -1948,37 +2757,37 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>8</v>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2">
-        <v>45250</v>
+        <v>45200</v>
       </c>
       <c r="D42" s="2">
-        <v>45280</v>
+        <v>45931</v>
       </c>
       <c r="E42" s="3">
-        <v>280497000</v>
+        <v>24056722803</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G42" s="3">
-        <v>26127818</v>
+        <v>271256676</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
       </c>
       <c r="I42" s="2">
-        <v>45266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
@@ -1994,48 +2803,48 @@
         <v>280497000</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="3">
-        <v>254369182</v>
+        <v>26127818</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
       </c>
       <c r="I43" s="2">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="2">
         <v>45250</v>
       </c>
       <c r="D44" s="2">
-        <v>45817</v>
+        <v>45280</v>
       </c>
       <c r="E44" s="3">
-        <v>3499497000</v>
+        <v>280497000</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="3">
-        <v>226258432</v>
+        <v>254369182</v>
       </c>
       <c r="H44" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="2">
-        <v>45266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -2049,22 +2858,23 @@
         <v>45817</v>
       </c>
       <c r="E45" s="3">
-        <v>3499497000</v>
+        <f>2900000000*1.11</f>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>139112864</v>
+        <v>226258432</v>
       </c>
       <c r="H45" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="2">
-        <v>45538</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -2078,13 +2888,14 @@
         <v>45817</v>
       </c>
       <c r="E46" s="3">
-        <v>3499497000</v>
+        <f t="shared" ref="E46:E61" si="0">2900000000*1.11</f>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" s="3">
-        <v>159244972</v>
+        <v>139112864</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
@@ -2093,7 +2904,7 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -2107,10 +2918,11 @@
         <v>45817</v>
       </c>
       <c r="E47" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>159244972</v>
@@ -2119,10 +2931,10 @@
         <v>16</v>
       </c>
       <c r="I47" s="2">
-        <v>45582</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
@@ -2136,10 +2948,11 @@
         <v>45817</v>
       </c>
       <c r="E48" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>159244972</v>
@@ -2148,10 +2961,10 @@
         <v>16</v>
       </c>
       <c r="I48" s="2">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
@@ -2165,10 +2978,11 @@
         <v>45817</v>
       </c>
       <c r="E49" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G49" s="3">
         <v>159244972</v>
@@ -2177,10 +2991,10 @@
         <v>16</v>
       </c>
       <c r="I49" s="2">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
@@ -2194,22 +3008,23 @@
         <v>45817</v>
       </c>
       <c r="E50" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G50" s="3">
-        <v>171324237</v>
+        <v>159244972</v>
       </c>
       <c r="H50" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="2">
-        <v>45674</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
@@ -2223,22 +3038,23 @@
         <v>45817</v>
       </c>
       <c r="E51" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" s="3">
-        <v>183403501</v>
+        <v>171324237</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
       </c>
       <c r="I51" s="2">
-        <v>45708</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>8</v>
       </c>
@@ -2252,10 +3068,11 @@
         <v>45817</v>
       </c>
       <c r="E52" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>183403501</v>
@@ -2264,10 +3081,10 @@
         <v>16</v>
       </c>
       <c r="I52" s="2">
-        <v>45735</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>8</v>
       </c>
@@ -2281,22 +3098,23 @@
         <v>45817</v>
       </c>
       <c r="E53" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53" s="3">
-        <v>183403502</v>
+        <v>183403501</v>
       </c>
       <c r="H53" t="s">
         <v>16</v>
       </c>
       <c r="I53" s="2">
-        <v>45768</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
@@ -2310,22 +3128,23 @@
         <v>45817</v>
       </c>
       <c r="E54" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="3">
-        <v>183403501</v>
+        <v>183403502</v>
       </c>
       <c r="H54" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="2">
-        <v>45799</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -2339,10 +3158,11 @@
         <v>45817</v>
       </c>
       <c r="E55" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" s="3">
         <v>183403501</v>
@@ -2351,10 +3171,10 @@
         <v>16</v>
       </c>
       <c r="I55" s="2">
-        <v>45827</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>8</v>
       </c>
@@ -2368,22 +3188,23 @@
         <v>45817</v>
       </c>
       <c r="E56" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" s="3">
-        <v>144145891</v>
+        <v>183403501</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="2">
-        <v>45863</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>8</v>
       </c>
@@ -2397,22 +3218,23 @@
         <v>45817</v>
       </c>
       <c r="E57" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" s="3">
-        <v>181419929</v>
+        <v>144145891</v>
       </c>
       <c r="H57" t="s">
         <v>16</v>
       </c>
       <c r="I57" s="2">
-        <v>45896</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
@@ -2426,22 +3248,23 @@
         <v>45817</v>
       </c>
       <c r="E58" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="3">
-        <v>181373872</v>
+        <v>181419929</v>
       </c>
       <c r="H58" t="s">
         <v>16</v>
       </c>
       <c r="I58" s="2">
-        <v>45936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>8</v>
       </c>
@@ -2455,22 +3278,23 @@
         <v>45817</v>
       </c>
       <c r="E59" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" s="3">
-        <v>174558350</v>
+        <v>181373872</v>
       </c>
       <c r="H59" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="2">
-        <v>45961</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>8</v>
       </c>
@@ -2484,52 +3308,54 @@
         <v>45817</v>
       </c>
       <c r="E60" s="3">
-        <v>3499497000</v>
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
       </c>
       <c r="F60">
+        <v>16</v>
+      </c>
+      <c r="G60" s="3">
+        <v>174558350</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="2">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45250</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45817</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="0"/>
+        <v>3219000000.0000005</v>
+      </c>
+      <c r="F61">
         <v>17</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G61" s="3">
         <v>207858350</v>
       </c>
-      <c r="H60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="2">
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="2">
         <v>45989</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="2">
-        <v>45314</v>
-      </c>
-      <c r="D61" s="2">
-        <v>45770</v>
-      </c>
-      <c r="E61" s="3">
-        <v>456654000</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
-        <v>40559400</v>
-      </c>
-      <c r="H61" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="2">
-        <v>45316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
@@ -2545,19 +3371,19 @@
         <v>456654000</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3">
-        <v>101398500</v>
+        <v>40559400</v>
       </c>
       <c r="H62" t="s">
         <v>16</v>
       </c>
       <c r="I62" s="2">
-        <v>45345</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2574,19 +3400,19 @@
         <v>456654000</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="3">
-        <v>81118800</v>
+        <v>101398500</v>
       </c>
       <c r="H63" t="s">
         <v>16</v>
       </c>
       <c r="I63" s="2">
-        <v>45558</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2603,19 +3429,19 @@
         <v>456654000</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64" s="3">
-        <v>116788650</v>
+        <v>81118800</v>
       </c>
       <c r="H64" t="s">
         <v>16</v>
       </c>
       <c r="I64" s="2">
-        <v>45695</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2632,49 +3458,49 @@
         <v>456654000</v>
       </c>
       <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" s="3">
+        <v>116788650</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="2">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45314</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45770</v>
+      </c>
+      <c r="E66" s="3">
+        <v>456654000</v>
+      </c>
+      <c r="F66">
         <v>5</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G66" s="3">
         <v>58394325</v>
       </c>
-      <c r="H65" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="2">
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="2">
         <v>45964</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="2">
-        <v>45455</v>
-      </c>
-      <c r="D66" s="2">
-        <v>46430</v>
-      </c>
-      <c r="E66" s="3">
-        <v>7376372103</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2212911631</v>
-      </c>
-      <c r="H66" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="2">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B67" t="s">
@@ -2690,24 +3516,24 @@
         <v>7376372103</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="3">
-        <v>3688186052</v>
+        <v>2212911631</v>
       </c>
       <c r="H67" t="s">
         <v>16</v>
       </c>
       <c r="I67" s="2">
-        <v>45622</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2">
         <v>45455</v>
@@ -2716,22 +3542,22 @@
         <v>46430</v>
       </c>
       <c r="E68" s="3">
-        <v>929757897</v>
+        <v>7376372103</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="3">
-        <v>251034632</v>
+        <v>3688186052</v>
       </c>
       <c r="H68" t="s">
         <v>16</v>
       </c>
       <c r="I68" s="2">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2748,19 +3574,19 @@
         <v>929757897</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="3">
-        <v>175724243</v>
+        <v>251034632</v>
       </c>
       <c r="H69" t="s">
         <v>16</v>
       </c>
       <c r="I69" s="2">
-        <v>45849</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2777,10 +3603,10 @@
         <v>929757897</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" s="3">
-        <v>246013940</v>
+        <v>175724243</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -2789,12 +3615,12 @@
         <v>45849</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2">
         <v>45455</v>
@@ -2803,85 +3629,83 @@
         <v>46430</v>
       </c>
       <c r="E71" s="3">
+        <v>929757897</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" s="3">
+        <v>246013940</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="2">
+        <v>45849</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45455</v>
+      </c>
+      <c r="D72" s="2">
+        <v>46430</v>
+      </c>
+      <c r="E72" s="3">
         <v>1596180000</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3">
-        <v>478854000</v>
-      </c>
-      <c r="H71" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="2">
-        <v>45897</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="2">
-        <v>45826</v>
-      </c>
-      <c r="D72" s="2">
-        <v>46374</v>
-      </c>
-      <c r="E72" s="3">
-        <v>5189250000</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" s="3">
-        <v>2075700000</v>
+        <v>478854000</v>
       </c>
       <c r="H72" t="s">
         <v>16</v>
       </c>
       <c r="I72" s="2">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="14">
+        <v>45455</v>
+      </c>
+      <c r="D73" s="14">
+        <v>46430</v>
+      </c>
+      <c r="E73" s="15">
+        <v>1104450000</v>
+      </c>
+      <c r="F73" s="13">
+        <v>1</v>
+      </c>
+      <c r="G73" s="15">
+        <v>0</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="14"/>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="2">
-        <v>45826</v>
-      </c>
-      <c r="D73" s="2">
-        <v>46374</v>
-      </c>
-      <c r="E73" s="3">
-        <v>5189250000</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-      <c r="G73" s="3">
-        <v>3113550000</v>
-      </c>
-      <c r="H73" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="2">
-        <v>45706</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>40</v>
-      </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2">
         <v>45826</v>
@@ -2890,27 +3714,28 @@
         <v>46374</v>
       </c>
       <c r="E74" s="3">
-        <v>969696000</v>
+        <v>6715500000</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" s="3">
-        <v>80808000</v>
+        <f>2075700000+610500000</f>
+        <v>2686200000</v>
       </c>
       <c r="H74" t="s">
         <v>16</v>
       </c>
       <c r="I74" s="2">
-        <v>45792</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2">
         <v>45826</v>
@@ -2919,27 +3744,28 @@
         <v>46374</v>
       </c>
       <c r="E75" s="3">
-        <v>969696000</v>
+        <v>6715500000</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" s="3">
-        <v>80808000</v>
+        <f>3113550000+763125000</f>
+        <v>3876675000</v>
       </c>
       <c r="H75" t="s">
         <v>16</v>
       </c>
       <c r="I75" s="2">
-        <v>45810</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2">
         <v>45826</v>
@@ -2948,10 +3774,10 @@
         <v>46374</v>
       </c>
       <c r="E76" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76" s="3">
         <v>80808000</v>
@@ -2960,15 +3786,15 @@
         <v>16</v>
       </c>
       <c r="I76" s="2">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2">
         <v>45826</v>
@@ -2977,10 +3803,10 @@
         <v>46374</v>
       </c>
       <c r="E77" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G77" s="3">
         <v>80808000</v>
@@ -2989,15 +3815,15 @@
         <v>16</v>
       </c>
       <c r="I77" s="2">
-        <v>45834</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C78" s="2">
         <v>45826</v>
@@ -3006,10 +3832,10 @@
         <v>46374</v>
       </c>
       <c r="E78" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G78" s="3">
         <v>80808000</v>
@@ -3018,15 +3844,15 @@
         <v>16</v>
       </c>
       <c r="I78" s="2">
-        <v>45846</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C79" s="2">
         <v>45826</v>
@@ -3035,10 +3861,10 @@
         <v>46374</v>
       </c>
       <c r="E79" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G79" s="3">
         <v>80808000</v>
@@ -3047,15 +3873,15 @@
         <v>16</v>
       </c>
       <c r="I79" s="2">
-        <v>45863</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2">
         <v>45826</v>
@@ -3064,10 +3890,10 @@
         <v>46374</v>
       </c>
       <c r="E80" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G80" s="3">
         <v>80808000</v>
@@ -3076,15 +3902,15 @@
         <v>16</v>
       </c>
       <c r="I80" s="2">
-        <v>45875</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" s="2">
         <v>45826</v>
@@ -3093,10 +3919,10 @@
         <v>46374</v>
       </c>
       <c r="E81" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G81" s="3">
         <v>80808000</v>
@@ -3105,15 +3931,15 @@
         <v>16</v>
       </c>
       <c r="I81" s="2">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2">
         <v>45826</v>
@@ -3122,10 +3948,10 @@
         <v>46374</v>
       </c>
       <c r="E82" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F82">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G82" s="3">
         <v>80808000</v>
@@ -3134,15 +3960,15 @@
         <v>16</v>
       </c>
       <c r="I82" s="2">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C83" s="2">
         <v>45826</v>
@@ -3151,10 +3977,10 @@
         <v>46374</v>
       </c>
       <c r="E83" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G83" s="3">
         <v>80808000</v>
@@ -3163,15 +3989,15 @@
         <v>16</v>
       </c>
       <c r="I83" s="2">
-        <v>45919</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="2">
         <v>45826</v>
@@ -3180,10 +4006,10 @@
         <v>46374</v>
       </c>
       <c r="E84" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G84" s="3">
         <v>80808000</v>
@@ -3192,15 +4018,15 @@
         <v>16</v>
       </c>
       <c r="I84" s="2">
-        <v>45938</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85" s="2">
         <v>45826</v>
@@ -3209,10 +4035,10 @@
         <v>46374</v>
       </c>
       <c r="E85" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F85">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G85" s="3">
         <v>80808000</v>
@@ -3221,15 +4047,15 @@
         <v>16</v>
       </c>
       <c r="I85" s="2">
-        <v>45951</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2">
         <v>45826</v>
@@ -3238,10 +4064,10 @@
         <v>46374</v>
       </c>
       <c r="E86" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F86">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G86" s="3">
         <v>80808000</v>
@@ -3250,15 +4076,15 @@
         <v>16</v>
       </c>
       <c r="I86" s="2">
-        <v>45972</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45938</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C87" s="2">
         <v>45826</v>
@@ -3267,10 +4093,10 @@
         <v>46374</v>
       </c>
       <c r="E87" s="3">
-        <v>969696000</v>
+        <v>1616160000</v>
       </c>
       <c r="F87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G87" s="3">
         <v>80808000</v>
@@ -3279,15 +4105,15 @@
         <v>16</v>
       </c>
       <c r="I87" s="2">
-        <v>45989</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2">
         <v>45826</v>
@@ -3296,27 +4122,27 @@
         <v>46374</v>
       </c>
       <c r="E88" s="3">
-        <v>1526250000</v>
+        <v>1616160000</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G88" s="3">
-        <v>610500000</v>
+        <v>80808000</v>
       </c>
       <c r="H88" t="s">
         <v>16</v>
       </c>
       <c r="I88" s="2">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C89" s="2">
         <v>45826</v>
@@ -3325,27 +4151,27 @@
         <v>46374</v>
       </c>
       <c r="E89" s="3">
-        <v>1526250000</v>
+        <v>1616160000</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G89" s="3">
-        <v>763125000</v>
+        <v>80808000</v>
       </c>
       <c r="H89" t="s">
         <v>16</v>
       </c>
       <c r="I89" s="2">
-        <v>45706</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2">
         <v>45478</v>
@@ -3369,12 +4195,12 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C91" s="2">
         <v>45478</v>
@@ -3398,12 +4224,12 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C92" s="2">
         <v>45478</v>
@@ -3427,12 +4253,12 @@
         <v>45702</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C93" s="2">
         <v>45478</v>
@@ -3456,12 +4282,12 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C94" s="2">
         <v>45478</v>
@@ -3485,12 +4311,12 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C95" s="2">
         <v>45516</v>
@@ -3514,12 +4340,12 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C96" s="2">
         <v>45516</v>
@@ -3543,12 +4369,12 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2">
         <v>45516</v>
@@ -3572,12 +4398,12 @@
         <v>45784</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C98" s="2">
         <v>45545</v>
@@ -3601,12 +4427,12 @@
         <v>45552</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C99" s="2">
         <v>45545</v>
@@ -3630,12 +4456,12 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C100" s="2">
         <v>45545</v>
@@ -3659,12 +4485,12 @@
         <v>45671</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C101" s="2">
         <v>45545</v>
@@ -3688,12 +4514,12 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C102" s="2">
         <v>45545</v>
@@ -3719,12 +4545,12 @@
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2">
         <v>45545</v>
@@ -3750,12 +4576,12 @@
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C104" s="2">
         <v>45545</v>
@@ -3781,12 +4607,12 @@
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C105" s="2">
         <v>45474</v>
@@ -3812,12 +4638,12 @@
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2">
         <v>45474</v>
@@ -3843,12 +4669,12 @@
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2">
         <v>45474</v>
@@ -3874,12 +4700,12 @@
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2">
         <v>45474</v>
@@ -3905,12 +4731,12 @@
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C109" s="2">
         <v>45474</v>
@@ -3936,12 +4762,12 @@
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C110" s="2">
         <v>45474</v>
@@ -3967,12 +4793,12 @@
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2">
         <v>45474</v>
@@ -3998,12 +4824,12 @@
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C112" s="2">
         <v>45474</v>
@@ -4029,12 +4855,12 @@
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2">
         <v>45474</v>
@@ -4060,12 +4886,12 @@
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C114" s="2">
         <v>45474</v>
@@ -4091,12 +4917,12 @@
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C115" s="2">
         <v>45474</v>
@@ -4111,7 +4937,7 @@
         <v>11</v>
       </c>
       <c r="G115" s="3">
-        <v>9810000</v>
+        <v>9990000</v>
       </c>
       <c r="H115" t="s">
         <v>16</v>
@@ -4122,12 +4948,12 @@
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C116" s="2">
         <v>45474</v>
@@ -4153,12 +4979,12 @@
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C117" s="2">
         <v>45474</v>
@@ -4184,12 +5010,12 @@
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C118" s="2">
         <v>45474</v>
@@ -4215,12 +5041,12 @@
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C119" s="2">
         <v>45474</v>
@@ -4246,12 +5072,12 @@
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C120" s="2">
         <v>45474</v>
@@ -4277,12 +5103,12 @@
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C121" s="2">
         <v>45474</v>
@@ -4308,12 +5134,12 @@
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C122" s="2">
         <v>45474</v>
@@ -4339,12 +5165,12 @@
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C123" s="2">
         <v>45502</v>
@@ -4370,12 +5196,12 @@
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B124" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C124" s="2">
         <v>45170</v>
@@ -4401,12 +5227,12 @@
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B125" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2">
         <v>45574</v>
@@ -4432,12 +5258,12 @@
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C126" s="2">
         <v>45583</v>
@@ -4463,12 +5289,12 @@
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C127" s="2">
         <v>45583</v>
@@ -4499,7 +5325,7 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2">
         <v>45589</v>
@@ -4530,7 +5356,7 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C129" s="2">
         <v>45589</v>
@@ -4561,7 +5387,7 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C130" s="2">
         <v>45589</v>
@@ -4592,7 +5418,7 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C131" s="2">
         <v>45589</v>
@@ -4623,7 +5449,7 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2">
         <v>45589</v>
@@ -4654,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C133" s="2">
         <v>45589</v>
@@ -4685,7 +5511,7 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2">
         <v>45589</v>
@@ -4716,7 +5542,7 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C135" s="2">
         <v>45589</v>
@@ -4747,7 +5573,7 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C136" s="2">
         <v>45589</v>
@@ -4773,12 +5599,12 @@
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C137" s="2">
         <v>45589</v>
@@ -4801,12 +5627,12 @@
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C138" s="2">
         <v>45589</v>
@@ -4829,12 +5655,12 @@
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C139" s="2">
         <v>45666</v>
@@ -4862,12 +5688,12 @@
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C140" s="2">
         <v>45666</v>
@@ -4895,12 +5721,12 @@
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2">
         <v>45638</v>
@@ -4926,12 +5752,12 @@
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C142" s="2">
         <v>45638</v>
@@ -4957,12 +5783,12 @@
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C143" s="2">
         <v>45638</v>
@@ -4988,12 +5814,12 @@
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B144" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C144" s="2">
         <v>45646</v>
@@ -5019,12 +5845,12 @@
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2">
         <v>45646</v>
@@ -5050,12 +5876,12 @@
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B146" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2">
         <v>45646</v>
@@ -5081,12 +5907,12 @@
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C147" s="2">
         <v>45636</v>
@@ -5095,7 +5921,8 @@
         <v>45726</v>
       </c>
       <c r="E147" s="3">
-        <v>256332300</v>
+        <f>307930000*1.11</f>
+        <v>341802300.00000006</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -5112,12 +5939,12 @@
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C148" s="2">
         <v>45636</v>
@@ -5143,12 +5970,12 @@
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C149" s="2">
         <v>45636</v>
@@ -5174,12 +6001,12 @@
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C150" s="2">
         <v>45636</v>
@@ -5188,7 +6015,8 @@
         <v>45726</v>
       </c>
       <c r="E150" s="3">
-        <v>199031880</v>
+        <f>179308000*1.11</f>
+        <v>199031880.00000003</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -5205,12 +6033,12 @@
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C151" s="2">
         <v>45636</v>
@@ -5236,12 +6064,12 @@
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
     </row>
-    <row r="152" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C152" s="10">
         <v>45636</v>
@@ -5267,12 +6095,12 @@
       <c r="N152" s="12"/>
       <c r="O152" s="12"/>
     </row>
-    <row r="153" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C153" s="10">
         <v>45636</v>
@@ -5298,12 +6126,12 @@
       <c r="N153" s="12"/>
       <c r="O153" s="12"/>
     </row>
-    <row r="154" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C154" s="10">
         <v>45636</v>
@@ -5329,12 +6157,12 @@
       <c r="N154" s="12"/>
       <c r="O154" s="12"/>
     </row>
-    <row r="155" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C155" s="10">
         <v>45636</v>
@@ -5365,7 +6193,7 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C156" s="2">
         <v>45663</v>
@@ -5396,7 +6224,7 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C157" s="2">
         <v>45663</v>
@@ -5427,7 +6255,7 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C158" s="2">
         <v>45663</v>
@@ -5453,12 +6281,12 @@
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B159" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C159" s="2">
         <v>45663</v>
@@ -5484,12 +6312,12 @@
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B160" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C160" s="2">
         <v>45663</v>
@@ -5515,12 +6343,12 @@
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B161" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C161" s="2">
         <v>45663</v>
@@ -5546,12 +6374,12 @@
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B162" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C162" s="2">
         <v>45663</v>
@@ -5577,12 +6405,12 @@
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B163" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C163" s="2">
         <v>45663</v>
@@ -5608,12 +6436,12 @@
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B164" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C164" s="2">
         <v>45663</v>
@@ -5639,12 +6467,12 @@
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B165" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C165" s="2">
         <v>45663</v>
@@ -5670,12 +6498,12 @@
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B166" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C166" s="2">
         <v>45663</v>
@@ -5701,12 +6529,12 @@
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B167" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C167" s="2">
         <v>45663</v>
@@ -5732,12 +6560,12 @@
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B168" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C168" s="2">
         <v>45663</v>
@@ -5763,12 +6591,12 @@
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B169" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C169" s="2">
         <v>45719</v>
@@ -5794,12 +6622,12 @@
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C170" s="2">
         <v>45805</v>
@@ -5825,12 +6653,12 @@
       <c r="N170" s="5"/>
       <c r="O170" s="5"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C171" s="2">
         <v>45805</v>
@@ -5861,7 +6689,7 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C172" s="2">
         <v>45694</v>
@@ -5892,7 +6720,7 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C173" s="2">
         <v>45694</v>
@@ -5923,7 +6751,7 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C174" s="2">
         <v>45694</v>
@@ -5954,7 +6782,7 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C175" s="2">
         <v>45694</v>
@@ -5985,7 +6813,7 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C176" s="2">
         <v>45694</v>
@@ -6016,7 +6844,7 @@
         <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C177" s="2">
         <v>45694</v>
@@ -6037,7 +6865,7 @@
         <v>16</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
@@ -6047,7 +6875,7 @@
         <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C178" s="2">
         <v>45694</v>
@@ -6073,12 +6901,12 @@
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
     </row>
-    <row r="179" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B179" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C179" s="2">
         <v>45818</v>
@@ -6104,12 +6932,12 @@
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
     </row>
-    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B180" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C180" s="2">
         <v>45818</v>
@@ -6135,12 +6963,12 @@
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
     </row>
-    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B181" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C181" s="2">
         <v>45818</v>
@@ -6166,12 +6994,12 @@
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
     </row>
-    <row r="182" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B182" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C182" s="2">
         <v>45778</v>
@@ -6197,12 +7025,12 @@
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
     </row>
-    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B183" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C183" s="2">
         <v>45778</v>
@@ -6228,12 +7056,12 @@
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B184" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C184" s="2">
         <v>45778</v>
@@ -6259,12 +7087,12 @@
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B185" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C185" s="2">
         <v>45778</v>
@@ -6290,12 +7118,12 @@
       <c r="N185" s="5"/>
       <c r="O185" s="5"/>
     </row>
-    <row r="186" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B186" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C186" s="2">
         <v>45768</v>
@@ -6321,12 +7149,12 @@
       <c r="N186" s="5"/>
       <c r="O186" s="5"/>
     </row>
-    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>14</v>
       </c>
       <c r="B187" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C187" s="2">
         <v>45768</v>
@@ -6352,12 +7180,12 @@
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C188" s="2">
         <v>45768</v>
@@ -6383,12 +7211,12 @@
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B189" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C189" s="2">
         <v>45778</v>
@@ -6414,12 +7242,12 @@
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B190" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C190" s="2">
         <v>45778</v>
@@ -6445,12 +7273,12 @@
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B191" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C191" s="2">
         <v>45778</v>
@@ -6476,12 +7304,12 @@
       <c r="N191" s="5"/>
       <c r="O191" s="5"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B192" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C192" s="2">
         <v>45778</v>
@@ -6507,12 +7335,12 @@
       <c r="N192" s="5"/>
       <c r="O192" s="5"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B193" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C193" s="2">
         <v>45778</v>
@@ -6538,12 +7366,12 @@
       <c r="N193" s="5"/>
       <c r="O193" s="5"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B194" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C194" s="2">
         <v>45778</v>
@@ -6569,12 +7397,12 @@
       <c r="N194" s="5"/>
       <c r="O194" s="5"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B195" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C195" s="2">
         <v>45778</v>
@@ -6600,12 +7428,12 @@
       <c r="N195" s="5"/>
       <c r="O195" s="5"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B196" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C196" s="2">
         <v>45778</v>
@@ -6631,12 +7459,12 @@
       <c r="N196" s="5"/>
       <c r="O196" s="5"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B197" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C197" s="2">
         <v>45778</v>
@@ -6662,12 +7490,12 @@
       <c r="N197" s="5"/>
       <c r="O197" s="5"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B198" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C198" s="2">
         <v>45778</v>
@@ -6693,12 +7521,12 @@
       <c r="N198" s="5"/>
       <c r="O198" s="5"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B199" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C199" s="2">
         <v>45778</v>
@@ -6724,12 +7552,12 @@
       <c r="N199" s="5"/>
       <c r="O199" s="5"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B200" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C200" s="2">
         <v>45778</v>
@@ -6755,12 +7583,12 @@
       <c r="N200" s="5"/>
       <c r="O200" s="5"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B201" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C201" s="2">
         <v>45778</v>
@@ -6786,12 +7614,12 @@
       <c r="N201" s="5"/>
       <c r="O201" s="5"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B202" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C202" s="2">
         <v>45778</v>
@@ -6817,12 +7645,12 @@
       <c r="N202" s="5"/>
       <c r="O202" s="5"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B203" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C203" s="2">
         <v>45778</v>
@@ -6848,12 +7676,12 @@
       <c r="N203" s="5"/>
       <c r="O203" s="5"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B204" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C204" s="2">
         <v>45778</v>
@@ -6879,12 +7707,12 @@
       <c r="N204" s="5"/>
       <c r="O204" s="5"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B205" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C205" s="2">
         <v>45778</v>
@@ -6910,12 +7738,12 @@
       <c r="N205" s="5"/>
       <c r="O205" s="5"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B206" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C206" s="2">
         <v>45778</v>
@@ -6941,12 +7769,12 @@
       <c r="N206" s="5"/>
       <c r="O206" s="5"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B207" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C207" s="2">
         <v>45778</v>
@@ -6972,12 +7800,12 @@
       <c r="N207" s="5"/>
       <c r="O207" s="5"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B208" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C208" s="2">
         <v>45778</v>
@@ -7003,12 +7831,12 @@
       <c r="N208" s="5"/>
       <c r="O208" s="5"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C209" s="2">
         <v>45834</v>
@@ -7034,12 +7862,12 @@
       <c r="N209" s="5"/>
       <c r="O209" s="5"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C210" s="2">
         <v>45834</v>
@@ -7065,9 +7893,9 @@
       <c r="N210" s="5"/>
       <c r="O210" s="5"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B211" t="s">
         <v>19</v>
@@ -7096,9 +7924,9 @@
       <c r="N211" s="5"/>
       <c r="O211" s="5"/>
     </row>
-    <row r="212" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B212" t="s">
         <v>20</v>
@@ -7158,12 +7986,12 @@
       <c r="N213" s="5"/>
       <c r="O213" s="5"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C214" s="2">
         <v>45852</v>
@@ -7190,12 +8018,12 @@
       <c r="N214" s="5"/>
       <c r="O214" s="5"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C215" s="2">
         <v>45852</v>
@@ -7222,12 +8050,12 @@
       <c r="N215" s="5"/>
       <c r="O215" s="5"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C216" s="2">
         <v>45845</v>
@@ -7253,12 +8081,12 @@
       <c r="N216" s="5"/>
       <c r="O216" s="5"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>22</v>
       </c>
       <c r="B217" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C217" s="2">
         <v>45845</v>
@@ -7284,12 +8112,12 @@
       <c r="N217" s="5"/>
       <c r="O217" s="5"/>
     </row>
-    <row r="218" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>22</v>
       </c>
       <c r="B218" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C218" s="2">
         <v>45901</v>
@@ -7298,7 +8126,7 @@
         <v>46447</v>
       </c>
       <c r="E218" s="3">
-        <v>2805299892</v>
+        <v>3357369403</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -7315,12 +8143,12 @@
       <c r="N218" s="5"/>
       <c r="O218" s="5"/>
     </row>
-    <row r="219" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>22</v>
       </c>
       <c r="B219" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C219" s="2">
         <v>45901</v>
@@ -7352,7 +8180,7 @@
         <v>22</v>
       </c>
       <c r="B220" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C220" s="2">
         <v>45888</v>
@@ -7365,18 +8193,18 @@
       </c>
       <c r="G220" s="3"/>
       <c r="H220" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I220" s="2"/>
       <c r="N220" s="5"/>
       <c r="O220" s="5"/>
     </row>
-    <row r="221" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>23</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C221" s="2">
         <v>45883</v>
@@ -7402,12 +8230,12 @@
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
     </row>
-    <row r="222" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>23</v>
       </c>
       <c r="B222" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C222" s="2">
         <v>45883</v>
@@ -7433,12 +8261,12 @@
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
     </row>
-    <row r="223" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>23</v>
       </c>
       <c r="B223" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C223" s="2">
         <v>45883</v>
@@ -7459,12 +8287,12 @@
       <c r="N223" s="5"/>
       <c r="O223" s="5"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B224" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C224" s="2">
         <v>45867</v>
@@ -7488,99 +8316,99 @@
         <v>45862</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>82</v>
+      </c>
+      <c r="B225" t="s">
+        <v>83</v>
+      </c>
+      <c r="C225" s="2">
+        <v>45867</v>
+      </c>
+      <c r="D225" s="2">
+        <v>45959</v>
+      </c>
+      <c r="E225">
+        <v>2425417371</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+      <c r="G225" s="3">
+        <v>727625209</v>
+      </c>
+      <c r="H225" t="s">
+        <v>16</v>
+      </c>
+      <c r="I225" s="2">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>22</v>
       </c>
-      <c r="B225" t="s">
-        <v>86</v>
-      </c>
-      <c r="C225" s="2">
+      <c r="B226" t="s">
+        <v>84</v>
+      </c>
+      <c r="C226" s="2">
         <v>45888</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D226" s="2">
         <v>46100</v>
       </c>
-      <c r="E225">
+      <c r="E226" s="5">
         <v>1783770000</v>
-      </c>
-      <c r="F225">
-        <v>1</v>
-      </c>
-      <c r="G225" s="3">
-        <v>1248639000</v>
-      </c>
-      <c r="H225" t="s">
-        <v>16</v>
-      </c>
-      <c r="I225" s="2">
-        <v>45919</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>9</v>
-      </c>
-      <c r="B226" t="s">
-        <v>87</v>
-      </c>
-      <c r="C226" s="2">
-        <v>45905</v>
-      </c>
-      <c r="D226" s="2">
-        <v>46143</v>
-      </c>
-      <c r="E226" s="3">
-        <v>1919004569</v>
       </c>
       <c r="F226">
         <v>1</v>
       </c>
       <c r="G226" s="3">
-        <v>1004595000</v>
+        <v>1248639000</v>
       </c>
       <c r="H226" t="s">
         <v>16</v>
       </c>
       <c r="I226" s="2">
-        <v>45904</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B227" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C227" s="2">
-        <v>45905</v>
+        <v>45888</v>
       </c>
       <c r="D227" s="2">
-        <v>46143</v>
-      </c>
-      <c r="E227" s="3">
-        <v>1919004569</v>
+        <v>46100</v>
+      </c>
+      <c r="E227" s="5">
+        <v>1783770000</v>
       </c>
       <c r="F227">
         <v>2</v>
       </c>
       <c r="G227" s="3">
-        <v>245537802</v>
+        <v>445942500</v>
       </c>
       <c r="H227" t="s">
         <v>16</v>
       </c>
       <c r="I227" s="2">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C228" s="2">
         <v>45905</v>
@@ -7592,316 +8420,568 @@
         <v>1919004569</v>
       </c>
       <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228" s="3">
+        <v>1004595000</v>
+      </c>
+      <c r="H228" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" s="2">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" t="s">
+        <v>85</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45905</v>
+      </c>
+      <c r="D229" s="2">
+        <v>46143</v>
+      </c>
+      <c r="E229" s="3">
+        <v>1919004569</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="G229" s="3">
+        <v>245537802</v>
+      </c>
+      <c r="H229" t="s">
+        <v>16</v>
+      </c>
+      <c r="I229" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" t="s">
+        <v>85</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45905</v>
+      </c>
+      <c r="D230" s="2">
+        <v>46143</v>
+      </c>
+      <c r="E230" s="3">
+        <v>1919004569</v>
+      </c>
+      <c r="F230">
         <v>3</v>
       </c>
-      <c r="G228" s="3">
+      <c r="G230" s="3">
         <v>204614835</v>
       </c>
-      <c r="H228" t="s">
-        <v>16</v>
-      </c>
-      <c r="I228" s="2"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>58</v>
-      </c>
-      <c r="B229" t="s">
-        <v>88</v>
-      </c>
-      <c r="C229" s="2">
+      <c r="H230" t="s">
+        <v>16</v>
+      </c>
+      <c r="I230" s="2"/>
+    </row>
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>56</v>
+      </c>
+      <c r="B231" t="s">
+        <v>86</v>
+      </c>
+      <c r="C231" s="2">
         <v>45895</v>
       </c>
-      <c r="D229" s="2">
-        <f t="shared" ref="D229" si="0">C229+F229</f>
+      <c r="D231" s="2">
+        <f t="shared" ref="D231" si="1">C231+F231</f>
         <v>45896</v>
       </c>
-      <c r="E229" s="3">
-        <v>1862161460</v>
-      </c>
-      <c r="F229">
-        <v>1</v>
-      </c>
-      <c r="G229" s="3">
-        <v>1117296876</v>
-      </c>
-      <c r="H229" t="s">
-        <v>16</v>
-      </c>
-      <c r="I229" s="2">
-        <v>45924</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>58</v>
-      </c>
-      <c r="B230" t="s">
-        <v>88</v>
-      </c>
-      <c r="C230" s="2">
-        <v>45895</v>
-      </c>
-      <c r="D230" s="2">
-        <f t="shared" ref="D230" si="1">C230+F230</f>
-        <v>45897</v>
-      </c>
-      <c r="E230" s="3">
-        <v>1862161460</v>
-      </c>
-      <c r="F230">
-        <v>2</v>
-      </c>
-      <c r="G230" s="3">
-        <v>279324219</v>
-      </c>
-      <c r="H230" t="s">
-        <v>16</v>
-      </c>
-      <c r="I230" s="2">
-        <v>45957</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>9</v>
-      </c>
-      <c r="B231" t="s">
-        <v>89</v>
-      </c>
-      <c r="C231" s="2">
-        <v>45923</v>
-      </c>
-      <c r="D231" s="2">
-        <v>46084</v>
-      </c>
       <c r="E231" s="3">
-        <v>223217572.31999999</v>
+        <f>1677622937*1.11</f>
+        <v>1862161460.0700002</v>
       </c>
       <c r="F231">
         <v>1</v>
       </c>
       <c r="G231" s="3">
-        <v>89287029</v>
+        <v>1117296876</v>
       </c>
       <c r="H231" t="s">
         <v>16</v>
       </c>
       <c r="I231" s="2">
-        <v>45925</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B232" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C232" s="2">
-        <v>45905</v>
+        <v>45895</v>
       </c>
       <c r="D232" s="2">
-        <v>46143</v>
+        <f t="shared" ref="D232" si="2">C232+F232</f>
+        <v>45897</v>
       </c>
       <c r="E232" s="3">
-        <v>285800380</v>
+        <v>1862161460</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G232" s="3">
+        <v>279324219</v>
       </c>
       <c r="H232" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I232" s="2">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C233" s="2">
-        <v>45905</v>
+        <v>45923</v>
       </c>
       <c r="D233" s="2">
-        <v>46058</v>
+        <v>46084</v>
       </c>
       <c r="E233" s="3">
-        <v>479987896</v>
+        <v>223217572.31999999</v>
       </c>
       <c r="F233">
         <v>1</v>
       </c>
-      <c r="G233">
-        <v>77198636.310000002</v>
+      <c r="G233" s="3">
+        <v>89287029</v>
       </c>
       <c r="H233" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I233" s="2">
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C234" s="2">
         <v>45905</v>
       </c>
       <c r="D234" s="2">
+        <v>46143</v>
+      </c>
+      <c r="E234" s="3">
+        <v>285800380</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="H234" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" t="s">
+        <v>89</v>
+      </c>
+      <c r="C235" s="2">
+        <v>45905</v>
+      </c>
+      <c r="D235" s="2">
         <v>46058</v>
       </c>
-      <c r="E234" s="3">
+      <c r="E235" s="3">
         <v>479987896</v>
-      </c>
-      <c r="F234">
-        <v>2</v>
-      </c>
-      <c r="G234" s="3">
-        <v>161107704</v>
-      </c>
-      <c r="H234" t="s">
-        <v>16</v>
-      </c>
-      <c r="I234" s="2">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>93</v>
-      </c>
-      <c r="B235" t="s">
-        <v>94</v>
-      </c>
-      <c r="C235" s="2">
-        <v>45953</v>
-      </c>
-      <c r="D235" s="2">
-        <v>46446</v>
-      </c>
-      <c r="E235">
-        <v>76951511653</v>
       </c>
       <c r="F235">
         <v>1</v>
       </c>
-      <c r="G235" s="3">
-        <v>2904772500</v>
+      <c r="G235" s="5">
+        <v>77198636.310000002</v>
       </c>
       <c r="H235" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C236" s="2">
-        <v>45953</v>
+        <v>45905</v>
       </c>
       <c r="D236" s="2">
-        <v>46446</v>
-      </c>
-      <c r="E236">
-        <v>76951511653</v>
+        <v>46058</v>
+      </c>
+      <c r="E236" s="3">
+        <v>479987896</v>
       </c>
       <c r="F236">
         <v>2</v>
       </c>
       <c r="G236" s="3">
-        <v>4790378665</v>
+        <v>161107704</v>
       </c>
       <c r="H236" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I236" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C237" s="2">
-        <v>45953</v>
+        <v>45905</v>
       </c>
       <c r="D237" s="2">
-        <v>46446</v>
-      </c>
-      <c r="E237">
-        <v>76951511653</v>
+        <v>46058</v>
+      </c>
+      <c r="E237" s="3">
+        <v>479987896</v>
       </c>
       <c r="F237">
         <v>3</v>
       </c>
       <c r="G237" s="3">
-        <v>7695151165</v>
+        <v>116970846</v>
       </c>
       <c r="H237" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I237" s="2">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C238" s="2">
-        <v>45923</v>
+        <v>45905</v>
       </c>
       <c r="D238" s="2">
-        <v>46468</v>
-      </c>
-      <c r="E238">
-        <v>6328302500</v>
+        <v>46058</v>
+      </c>
+      <c r="E238" s="3">
+        <v>285800380</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="G238" s="5">
-        <v>1265660500</v>
+        <v>203503408.44</v>
       </c>
       <c r="H238" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I238" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C239" s="2">
-        <v>45923</v>
+        <v>45905</v>
       </c>
       <c r="D239" s="2">
-        <v>46468</v>
-      </c>
-      <c r="E239">
-        <v>6328302500</v>
+        <v>46058</v>
+      </c>
+      <c r="E239" s="3">
+        <v>285800380</v>
       </c>
       <c r="F239">
         <v>2</v>
       </c>
       <c r="G239" s="5">
-        <f>97802850+925162</f>
-        <v>98728012</v>
+        <v>60311839</v>
       </c>
       <c r="H239" t="s">
         <v>16</v>
       </c>
+      <c r="I239" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" t="s">
+        <v>99</v>
+      </c>
+      <c r="C240" s="2">
+        <v>45905</v>
+      </c>
+      <c r="D240" s="2">
+        <v>46058</v>
+      </c>
+      <c r="E240" s="3">
+        <v>285800380</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+      <c r="G240" s="3">
+        <v>10710705</v>
+      </c>
+      <c r="H240" t="s">
+        <v>16</v>
+      </c>
+      <c r="I240" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>91</v>
+      </c>
+      <c r="B241" t="s">
+        <v>92</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45953</v>
+      </c>
+      <c r="D241" s="2">
+        <v>46446</v>
+      </c>
+      <c r="E241" s="5">
+        <v>76951511653</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241" s="3">
+        <v>15390302331</v>
+      </c>
+      <c r="H241" t="s">
+        <v>16</v>
+      </c>
+      <c r="I241" s="2">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>91</v>
+      </c>
+      <c r="B242" t="s">
+        <v>92</v>
+      </c>
+      <c r="C242" s="2">
+        <v>45953</v>
+      </c>
+      <c r="D242" s="2">
+        <v>46446</v>
+      </c>
+      <c r="E242" s="5">
+        <v>76951511653</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="G242" s="3">
+        <v>4765328167</v>
+      </c>
+      <c r="H242" t="s">
+        <v>16</v>
+      </c>
+      <c r="I242" s="2">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>91</v>
+      </c>
+      <c r="B243" t="s">
+        <v>92</v>
+      </c>
+      <c r="C243" s="2">
+        <v>45953</v>
+      </c>
+      <c r="D243" s="2">
+        <v>46446</v>
+      </c>
+      <c r="E243" s="5">
+        <v>76951511653</v>
+      </c>
+      <c r="F243">
+        <v>3</v>
+      </c>
+      <c r="G243" s="3">
+        <v>3750953341</v>
+      </c>
+      <c r="H243" t="s">
+        <v>16</v>
+      </c>
+      <c r="I243" s="2">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>93</v>
+      </c>
+      <c r="B244" t="s">
+        <v>94</v>
+      </c>
+      <c r="C244" s="2">
+        <v>45923</v>
+      </c>
+      <c r="D244" s="2">
+        <v>46468</v>
+      </c>
+      <c r="E244" s="5">
+        <v>6328302500</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244" s="5">
+        <v>1265660500</v>
+      </c>
+      <c r="H244" t="s">
+        <v>16</v>
+      </c>
+      <c r="I244" s="2">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>93</v>
+      </c>
+      <c r="B245" t="s">
+        <v>94</v>
+      </c>
+      <c r="C245" s="2">
+        <v>45923</v>
+      </c>
+      <c r="D245" s="2">
+        <v>46468</v>
+      </c>
+      <c r="E245" s="5">
+        <v>6328302500</v>
+      </c>
+      <c r="F245">
+        <v>2</v>
+      </c>
+      <c r="G245" s="5">
+        <v>58681710</v>
+      </c>
+      <c r="H245" t="s">
+        <v>16</v>
+      </c>
+      <c r="I245" s="2">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>93</v>
+      </c>
+      <c r="B246" t="s">
+        <v>94</v>
+      </c>
+      <c r="C246" s="2">
+        <v>45923</v>
+      </c>
+      <c r="D246" s="2">
+        <v>46468</v>
+      </c>
+      <c r="E246" s="5">
+        <v>6328302500</v>
+      </c>
+      <c r="F246">
+        <v>3</v>
+      </c>
+      <c r="G246" s="3">
+        <v>74085180</v>
+      </c>
+      <c r="H246" t="s">
+        <v>16</v>
+      </c>
+      <c r="I246" s="2">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>93</v>
+      </c>
+      <c r="B247" t="s">
+        <v>94</v>
+      </c>
+      <c r="C247" s="2">
+        <v>45923</v>
+      </c>
+      <c r="D247" s="2">
+        <v>46468</v>
+      </c>
+      <c r="E247" s="5">
+        <v>6328302500</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
+      </c>
+      <c r="G247" s="3">
+        <v>63223200</v>
+      </c>
+      <c r="H247" t="s">
+        <v>16</v>
+      </c>
+      <c r="I247" s="2">
+        <v>45979</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I239" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:I247" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PT LAUTAN DELTAMAS SEJAHTERA"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="Paid"/>
@@ -7914,53 +8994,599 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C6A7C2-229B-47D6-BC00-82327B40AEDD}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80C99F0-6C10-4209-995E-18F61514E18C}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>84904</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>51512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>49667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f>SUM(A1:A3)</f>
-        <v>186083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>122202733732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>126971710115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <f>A7-A6</f>
-        <v>4768976383</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A1)</f>
+        <v>36000000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D1)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D1)</f>
+        <v>36000000</v>
+      </c>
+      <c r="F1" s="6">
+        <f>B1-E1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A2)</f>
+        <v>658096800</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D2)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D2)</f>
+        <v>658096800</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F29" si="0">B2-E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A3)</f>
+        <v>3006046500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D3)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D3)</f>
+        <v>3006046500.0000005</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A4)</f>
+        <v>3579432376</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D4)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D4)</f>
+        <v>3579432376</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A5)</f>
+        <v>3749502907</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D5)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D5)</f>
+        <v>3749502907</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A6)</f>
+        <v>3260546319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D6)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D6)</f>
+        <v>3260546319</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A7)</f>
+        <v>939093855</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D7)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D7)</f>
+        <v>939093855</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A8)</f>
+        <v>7052724498</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D8)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D8)</f>
+        <v>7052724498</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A9)</f>
+        <v>7694187000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D9)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D9)</f>
+        <v>7694187000</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A10)</f>
+        <v>55743328288</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D10)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D10)</f>
+        <v>2296247653</v>
+      </c>
+      <c r="F10" s="6">
+        <f>B10-E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A11)</f>
+        <v>2296247653</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D11)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D11)</f>
+        <v>55743328288</v>
+      </c>
+      <c r="F11" s="6">
+        <f>B11-E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>8789692671</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D12)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D12)</f>
+        <v>8789692671</v>
+      </c>
+      <c r="F12" s="6">
+        <f>B12-E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A13)</f>
+        <v>5317285627.75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D13)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D13)</f>
+        <v>5317285628</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A14)</f>
+        <v>57165000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D14)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D14)</f>
+        <v>57165000</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A15)</f>
+        <v>386737800</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D15)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D15)</f>
+        <v>386737800</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A16)</f>
+        <v>408000000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D16)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D16)</f>
+        <v>408000000</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A17)</f>
+        <v>18333333</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D17)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D17)</f>
+        <v>18333333</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A18)</f>
+        <v>65000000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D18)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D18)</f>
+        <v>65000000</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A19)</f>
+        <v>11100000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D19)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D19)</f>
+        <v>3017951611</v>
+      </c>
+      <c r="F19" s="6">
+        <f>B19-E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A20)</f>
+        <v>3017951611</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D20)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D20)</f>
+        <v>185300000</v>
+      </c>
+      <c r="F20" s="6">
+        <f>B20-E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A21)</f>
+        <v>185300000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D21)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D21)</f>
+        <v>344444444</v>
+      </c>
+      <c r="F21" s="6">
+        <f>B21-E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A22)</f>
+        <v>344444444</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D22)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D22)</f>
+        <v>145543755</v>
+      </c>
+      <c r="F22" s="6">
+        <f>B22-E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A23)</f>
+        <v>145543755</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D23)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D23)</f>
+        <v>2416173507</v>
+      </c>
+      <c r="F23" s="6">
+        <f>B23-E22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A24)</f>
+        <v>2416173507</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D24)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D24)</f>
+        <v>3869026115</v>
+      </c>
+      <c r="F24" s="6">
+        <f>B24-E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A25)</f>
+        <v>3869026115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D25)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D25)</f>
+        <v>14239617744</v>
+      </c>
+      <c r="F25" s="6">
+        <f>B25-E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A26)</f>
+        <v>14239617744</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D26)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D26)</f>
+        <v>1455250420</v>
+      </c>
+      <c r="F26" s="6">
+        <f>B26-E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A27)</f>
+        <v>1455250420</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D27)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D27)</f>
+        <v>11100000.000000002</v>
+      </c>
+      <c r="F27" s="6">
+        <f>B27-E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A28)</f>
+        <v>23906583839</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D28)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D28)</f>
+        <v>23906583839</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="5">
+        <f>SUMIFS(Sheet1!G:G,Sheet1!A:A,Lembar1!A29)</f>
+        <v>1461650590</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="5">
+        <f>SUMIFS('[1]DATA KONTRAK UPDATE'!$N:$N,'[1]DATA KONTRAK UPDATE'!$J:$J,D29)+SUMIFS('[1]DATA KONTRAK UPDATE'!$O:$O,'[1]DATA KONTRAK UPDATE'!$J:$J,D29)</f>
+        <v>1461650590</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
